--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="set1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="set2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="set3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="grid1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="grid2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="grid3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Version history" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -984,9 +984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820800</xdr:colOff>
+      <xdr:colOff>820440</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -995,8 +995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3192840" y="6959880"/>
-          <a:ext cx="6643440" cy="1856520"/>
+          <a:off x="3193560" y="6959880"/>
+          <a:ext cx="6643800" cy="1856160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,9 +1239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820800</xdr:colOff>
+      <xdr:colOff>820440</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1250,8 +1250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3192840" y="6959880"/>
-          <a:ext cx="6643440" cy="1856520"/>
+          <a:off x="3193560" y="6959880"/>
+          <a:ext cx="6643800" cy="1856160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1290,17 +1290,7 @@
               <a:uFillTx/>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>Instructio</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>ns:</a:t>
+            <a:t>Instructions:</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1319,52 +1309,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>1. Add the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>names of all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>team </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>members to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the green </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>box in row 1</a:t>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1383,43 +1328,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>go in line 6</a:t>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1438,43 +1347,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>3. Sample-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>specific </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>are entered </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>in rows 7+</a:t>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1493,61 +1366,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>4. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values from </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>line 6 will be </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>used for all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>cells left </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>rows 7+</a:t>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1566,79 +1385,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motor </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>names and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>positions in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Q,R,S,T; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>leave blank </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>for no </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motion</a:t>
+            <a:t>5. Specify motor names and positions in columns Q,R,S,T; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1657,52 +1404,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>detector </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>position in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column U, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>means to </a:t>
+            <a:t>6. Specify detector position in column U, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1720,16 +1422,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the detector </a:t>
+            <a:t> the detector </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1748,25 +1441,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add rows </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>above row 7</a:t>
+            <a:t>6. Do not add rows above row 7</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1785,43 +1460,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>before </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column AE</a:t>
+            <a:t>7. Do not add columns before column AE</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1855,9 +1494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820800</xdr:colOff>
+      <xdr:colOff>820440</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1866,8 +1505,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3192840" y="6959880"/>
-          <a:ext cx="6643440" cy="1856520"/>
+          <a:off x="3193560" y="6959880"/>
+          <a:ext cx="6643800" cy="1856160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2106,7 +1745,7 @@
   </sheetPr>
   <dimension ref="B1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -2114,7 +1753,7 @@
       <selection pane="bottomRight" activeCell="Q23" activeCellId="0" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3238,7 +2877,7 @@
       <selection pane="bottomRight" activeCell="Q23" activeCellId="0" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4337,7 +3976,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4354,7 +3993,7 @@
   </sheetPr>
   <dimension ref="B1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -4362,7 +4001,7 @@
       <selection pane="bottomRight" activeCell="Q23" activeCellId="0" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -5461,7 +5100,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5482,7 +5121,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="grid1" sheetId="1" state="visible" r:id="rId2"/>
@@ -984,9 +984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820440</xdr:colOff>
+      <xdr:colOff>820080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -995,8 +995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193560" y="6959880"/>
-          <a:ext cx="6643800" cy="1856160"/>
+          <a:off x="3193920" y="6959880"/>
+          <a:ext cx="6644160" cy="1855800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,9 +1239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820440</xdr:colOff>
+      <xdr:colOff>820080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1250,8 +1250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193560" y="6959880"/>
-          <a:ext cx="6643800" cy="1856160"/>
+          <a:off x="3193920" y="6959880"/>
+          <a:ext cx="6644160" cy="1855800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1494,9 +1494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820440</xdr:colOff>
+      <xdr:colOff>820080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1505,8 +1505,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193560" y="6959880"/>
-          <a:ext cx="6643800" cy="1856160"/>
+          <a:off x="3193920" y="6959880"/>
+          <a:ext cx="6644160" cy="1855800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,15 +1745,15 @@
   </sheetPr>
   <dimension ref="B1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q23" activeCellId="0" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -1770,9 +1770,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2874,10 +2874,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q23" activeCellId="0" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2894,9 +2894,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3993,15 +3993,15 @@
   </sheetPr>
   <dimension ref="B1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q23" activeCellId="0" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4018,9 +4018,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5044,7 +5044,7 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -5093,7 +5093,11 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:U30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q30" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -5121,7 +5125,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="grid1" sheetId="1" state="visible" r:id="rId2"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="68">
   <si>
     <t xml:space="preserve">Grid</t>
   </si>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">Experimenters:</t>
   </si>
   <si>
-    <t xml:space="preserve">Version: 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Change edge at start?</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
     <t xml:space="preserve">xafs_y</t>
   </si>
   <si>
+    <t xml:space="preserve">Current</t>
+  </si>
+  <si>
     <t xml:space="preserve">Version</t>
   </si>
   <si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added motor grid automation, 3 empty tabs in each template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added LakeShore 331</t>
   </si>
 </sst>
 </file>
@@ -984,9 +987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820080</xdr:colOff>
+      <xdr:colOff>819720</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -995,8 +998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193920" y="6959880"/>
-          <a:ext cx="6644160" cy="1855800"/>
+          <a:off x="3194640" y="6959880"/>
+          <a:ext cx="6644520" cy="1855440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,9 +1242,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820080</xdr:colOff>
+      <xdr:colOff>819720</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1250,8 +1253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193920" y="6959880"/>
-          <a:ext cx="6644160" cy="1855800"/>
+          <a:off x="3194640" y="6959880"/>
+          <a:ext cx="6644520" cy="1855440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1494,9 +1497,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>820080</xdr:colOff>
+      <xdr:colOff>819720</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1505,8 +1508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193920" y="6959880"/>
-          <a:ext cx="6644160" cy="1855800"/>
+          <a:off x="3194640" y="6959880"/>
+          <a:ext cx="6644520" cy="1855440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,15 +1748,15 @@
   </sheetPr>
   <dimension ref="B1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -1808,29 +1811,30 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1872,38 +1876,38 @@
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
@@ -1911,7 +1915,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
@@ -1919,140 +1923,140 @@
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="Q5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="S5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="U5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="V5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="X5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Z5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="AA5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AB5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="20" t="s">
+      <c r="AC5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="27" t="s">
+      <c r="AD5" s="27" t="s">
         <v>42</v>
-      </c>
-      <c r="AD5" s="27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="29"/>
       <c r="C6" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="29" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="P6" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="Q6" s="42" t="s">
         <v>55</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>56</v>
       </c>
       <c r="R6" s="41"/>
       <c r="S6" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T6" s="41"/>
       <c r="U6" s="41"/>
@@ -2087,7 +2091,7 @@
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="47"/>
       <c r="C7" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="11"/>
@@ -2116,7 +2120,7 @@
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="47"/>
       <c r="C8" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="11"/>
@@ -2145,7 +2149,7 @@
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="47"/>
       <c r="C9" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="11"/>
@@ -2174,7 +2178,7 @@
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="47"/>
       <c r="C10" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="11"/>
@@ -2203,7 +2207,7 @@
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="47"/>
       <c r="C11" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="11"/>
@@ -2232,7 +2236,7 @@
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="47"/>
       <c r="C12" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="11"/>
@@ -2261,7 +2265,7 @@
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="47"/>
       <c r="C13" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="11"/>
@@ -2290,7 +2294,7 @@
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="47"/>
       <c r="C14" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="11"/>
@@ -2319,7 +2323,7 @@
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="11"/>
@@ -2348,7 +2352,7 @@
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="47"/>
       <c r="C16" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="11"/>
@@ -2377,7 +2381,7 @@
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="47"/>
       <c r="C17" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="11"/>
@@ -2406,7 +2410,7 @@
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="47"/>
       <c r="C18" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="11"/>
@@ -2435,7 +2439,7 @@
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="47"/>
       <c r="C19" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="11"/>
@@ -2464,7 +2468,7 @@
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="47"/>
       <c r="C20" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="11"/>
@@ -2493,7 +2497,7 @@
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="47"/>
       <c r="C21" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="11"/>
@@ -2522,7 +2526,7 @@
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="47"/>
       <c r="C22" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="11"/>
@@ -2551,7 +2555,7 @@
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="47"/>
       <c r="C23" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="11"/>
@@ -2580,7 +2584,7 @@
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="47"/>
       <c r="C24" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="11"/>
@@ -2609,7 +2613,7 @@
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="47"/>
       <c r="C25" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="11"/>
@@ -2638,7 +2642,7 @@
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="47"/>
       <c r="C26" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="11"/>
@@ -2667,7 +2671,7 @@
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="47"/>
       <c r="C27" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="11"/>
@@ -2696,7 +2700,7 @@
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="47"/>
       <c r="C28" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="11"/>
@@ -2725,7 +2729,7 @@
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="47"/>
       <c r="C29" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="11"/>
@@ -2754,7 +2758,7 @@
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="47"/>
       <c r="C30" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="11"/>
@@ -2874,10 +2878,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2932,29 +2936,30 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -2996,38 +3001,38 @@
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
@@ -3035,7 +3040,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
@@ -3043,140 +3048,140 @@
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="Q5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="S5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="U5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="V5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="X5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Z5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="AA5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AB5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="20" t="s">
+      <c r="AC5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="27" t="s">
+      <c r="AD5" s="27" t="s">
         <v>42</v>
-      </c>
-      <c r="AD5" s="27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="29"/>
       <c r="C6" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="29" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="P6" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="Q6" s="42" t="s">
         <v>55</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>56</v>
       </c>
       <c r="R6" s="41"/>
       <c r="S6" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T6" s="41"/>
       <c r="U6" s="41"/>
@@ -3211,7 +3216,7 @@
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="47"/>
       <c r="C7" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="11"/>
@@ -3240,7 +3245,7 @@
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="47"/>
       <c r="C8" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="11"/>
@@ -3269,7 +3274,7 @@
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="47"/>
       <c r="C9" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="11"/>
@@ -3298,7 +3303,7 @@
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="47"/>
       <c r="C10" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="11"/>
@@ -3327,7 +3332,7 @@
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="47"/>
       <c r="C11" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="11"/>
@@ -3356,7 +3361,7 @@
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="47"/>
       <c r="C12" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="11"/>
@@ -3385,7 +3390,7 @@
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="47"/>
       <c r="C13" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="11"/>
@@ -3414,7 +3419,7 @@
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="47"/>
       <c r="C14" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="11"/>
@@ -3443,7 +3448,7 @@
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="11"/>
@@ -3472,7 +3477,7 @@
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="47"/>
       <c r="C16" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="11"/>
@@ -3501,7 +3506,7 @@
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="47"/>
       <c r="C17" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="11"/>
@@ -3530,7 +3535,7 @@
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="47"/>
       <c r="C18" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="11"/>
@@ -3559,7 +3564,7 @@
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="47"/>
       <c r="C19" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="11"/>
@@ -3588,7 +3593,7 @@
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="47"/>
       <c r="C20" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="11"/>
@@ -3617,7 +3622,7 @@
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="47"/>
       <c r="C21" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="11"/>
@@ -3646,7 +3651,7 @@
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="47"/>
       <c r="C22" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="11"/>
@@ -3675,7 +3680,7 @@
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="47"/>
       <c r="C23" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="11"/>
@@ -3704,7 +3709,7 @@
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="47"/>
       <c r="C24" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="11"/>
@@ -3733,7 +3738,7 @@
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="47"/>
       <c r="C25" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="11"/>
@@ -3762,7 +3767,7 @@
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="47"/>
       <c r="C26" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="11"/>
@@ -3791,7 +3796,7 @@
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="47"/>
       <c r="C27" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="11"/>
@@ -3820,7 +3825,7 @@
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="47"/>
       <c r="C28" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="11"/>
@@ -3849,7 +3854,7 @@
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="47"/>
       <c r="C29" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="11"/>
@@ -3878,7 +3883,7 @@
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="47"/>
       <c r="C30" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="11"/>
@@ -3998,10 +4003,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4056,29 +4061,30 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -4120,38 +4126,38 @@
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
@@ -4159,7 +4165,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
@@ -4167,140 +4173,140 @@
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="Q5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="S5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="U5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="V5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="X5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Z5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="AA5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AB5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="20" t="s">
+      <c r="AC5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="27" t="s">
+      <c r="AD5" s="27" t="s">
         <v>42</v>
-      </c>
-      <c r="AD5" s="27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="29"/>
       <c r="C6" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="29" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="P6" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="Q6" s="42" t="s">
         <v>55</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>56</v>
       </c>
       <c r="R6" s="41"/>
       <c r="S6" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T6" s="41"/>
       <c r="U6" s="41"/>
@@ -4335,7 +4341,7 @@
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="47"/>
       <c r="C7" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="11"/>
@@ -4364,7 +4370,7 @@
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="47"/>
       <c r="C8" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="11"/>
@@ -4393,7 +4399,7 @@
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="47"/>
       <c r="C9" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="11"/>
@@ -4422,7 +4428,7 @@
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="47"/>
       <c r="C10" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="11"/>
@@ -4451,7 +4457,7 @@
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="47"/>
       <c r="C11" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="11"/>
@@ -4480,7 +4486,7 @@
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="47"/>
       <c r="C12" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="11"/>
@@ -4509,7 +4515,7 @@
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="47"/>
       <c r="C13" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="11"/>
@@ -4538,7 +4544,7 @@
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="47"/>
       <c r="C14" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="11"/>
@@ -4567,7 +4573,7 @@
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="11"/>
@@ -4596,7 +4602,7 @@
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="47"/>
       <c r="C16" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="11"/>
@@ -4625,7 +4631,7 @@
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="47"/>
       <c r="C17" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="11"/>
@@ -4654,7 +4660,7 @@
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="47"/>
       <c r="C18" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="11"/>
@@ -4683,7 +4689,7 @@
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="47"/>
       <c r="C19" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="11"/>
@@ -4712,7 +4718,7 @@
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="47"/>
       <c r="C20" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="11"/>
@@ -4741,7 +4747,7 @@
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="47"/>
       <c r="C21" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="11"/>
@@ -4770,7 +4776,7 @@
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="47"/>
       <c r="C22" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="11"/>
@@ -4799,7 +4805,7 @@
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="47"/>
       <c r="C23" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="11"/>
@@ -4828,7 +4834,7 @@
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="47"/>
       <c r="C24" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="11"/>
@@ -4857,7 +4863,7 @@
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="47"/>
       <c r="C25" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="11"/>
@@ -4886,7 +4892,7 @@
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="47"/>
       <c r="C26" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="11"/>
@@ -4915,7 +4921,7 @@
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="47"/>
       <c r="C27" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="11"/>
@@ -4944,7 +4950,7 @@
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="47"/>
       <c r="C28" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="11"/>
@@ -4973,7 +4979,7 @@
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="47"/>
       <c r="C29" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="11"/>
@@ -5002,7 +5008,7 @@
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="47"/>
       <c r="C30" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="11"/>
@@ -5119,13 +5125,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5133,66 +5139,95 @@
   <sheetData>
     <row r="1" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27"/>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="grid1" sheetId="1" state="visible" r:id="rId2"/>
@@ -341,9 +341,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -684,7 +685,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,7 +693,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -784,7 +785,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -836,15 +837,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,7 +857,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -884,15 +885,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -987,9 +988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819720</xdr:colOff>
+      <xdr:colOff>819360</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -998,8 +999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3194640" y="6959880"/>
-          <a:ext cx="6644520" cy="1855440"/>
+          <a:off x="3195360" y="6959880"/>
+          <a:ext cx="6644520" cy="1855080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,9 +1243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819720</xdr:colOff>
+      <xdr:colOff>819360</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1253,8 +1254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3194640" y="6959880"/>
-          <a:ext cx="6644520" cy="1855440"/>
+          <a:off x="3195360" y="6959880"/>
+          <a:ext cx="6644520" cy="1855080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,9 +1498,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819720</xdr:colOff>
+      <xdr:colOff>819360</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1508,8 +1509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3194640" y="6959880"/>
-          <a:ext cx="6644520" cy="1855440"/>
+          <a:off x="3195360" y="6959880"/>
+          <a:ext cx="6644520" cy="1855080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1748,15 +1749,15 @@
   </sheetPr>
   <dimension ref="B1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2076,9 +2077,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="44" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Z6" s="44" t="b">
+        <v>1</v>
       </c>
       <c r="AA6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -2874,14 +2874,14 @@
   <dimension ref="B1:AD30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3201,9 +3201,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="44" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Z6" s="44" t="b">
+        <v>1</v>
       </c>
       <c r="AA6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -3999,14 +3998,14 @@
   <dimension ref="B1:AD30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4326,9 +4325,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="44" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Z6" s="44" t="b">
+        <v>1</v>
       </c>
       <c r="AA6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -5127,11 +5125,11 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="69">
   <si>
     <t xml:space="preserve">Grid</t>
   </si>
@@ -154,6 +154,9 @@
     <t xml:space="preserve">Add element to filename?</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of repetitions</t>
+  </si>
+  <si>
     <t xml:space="preserve">File name</t>
   </si>
   <si>
@@ -184,9 +187,6 @@
     <t xml:space="preserve">Filename</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of repetitions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Starting scan number</t>
   </si>
   <si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added LakeShore 331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop over entire macro</t>
   </si>
 </sst>
 </file>
@@ -701,12 +704,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -988,9 +991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819360</xdr:colOff>
+      <xdr:colOff>819000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -999,8 +1002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3195360" y="6959880"/>
-          <a:ext cx="6644520" cy="1855080"/>
+          <a:off x="3196080" y="6959880"/>
+          <a:ext cx="6644880" cy="1854720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,9 +1246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819360</xdr:colOff>
+      <xdr:colOff>819000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1254,8 +1257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3195360" y="6959880"/>
-          <a:ext cx="6644520" cy="1855080"/>
+          <a:off x="3196080" y="6959880"/>
+          <a:ext cx="6644880" cy="1854720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,9 +1501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819360</xdr:colOff>
+      <xdr:colOff>819000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1509,8 +1512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3195360" y="6959880"/>
-          <a:ext cx="6644520" cy="1855080"/>
+          <a:off x="3196080" y="6959880"/>
+          <a:ext cx="6644880" cy="1854720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1750,14 +1753,14 @@
   <dimension ref="B1:AD30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+      <selection pane="bottomRight" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -1814,7 +1817,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
+        <v>Version: 9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -1837,78 +1840,82 @@
       <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="9"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
-      <c r="AA2" s="10"/>
+      <c r="AA2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="9"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
-      <c r="AA3" s="10"/>
+      <c r="AA3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
@@ -1916,7 +1923,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
@@ -1924,13 +1931,13 @@
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>18</v>
@@ -2077,7 +2084,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="44" t="b">
+      <c r="Z6" s="44" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AA6" s="45" t="n">
@@ -2106,8 +2114,8 @@
       <c r="N7" s="52"/>
       <c r="O7" s="28"/>
       <c r="P7" s="53"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
       <c r="U7" s="54"/>
       <c r="V7" s="55"/>
       <c r="W7" s="56"/>
@@ -2135,8 +2143,8 @@
       <c r="N8" s="52"/>
       <c r="O8" s="28"/>
       <c r="P8" s="53"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
       <c r="U8" s="54"/>
       <c r="V8" s="55"/>
       <c r="W8" s="56"/>
@@ -2164,8 +2172,8 @@
       <c r="N9" s="52"/>
       <c r="O9" s="28"/>
       <c r="P9" s="53"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
       <c r="U9" s="54"/>
       <c r="V9" s="55"/>
       <c r="W9" s="56"/>
@@ -2193,8 +2201,8 @@
       <c r="N10" s="52"/>
       <c r="O10" s="28"/>
       <c r="P10" s="53"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
       <c r="U10" s="54"/>
       <c r="V10" s="55"/>
       <c r="W10" s="56"/>
@@ -2222,8 +2230,8 @@
       <c r="N11" s="52"/>
       <c r="O11" s="28"/>
       <c r="P11" s="53"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
       <c r="U11" s="54"/>
       <c r="V11" s="55"/>
       <c r="W11" s="56"/>
@@ -2251,8 +2259,8 @@
       <c r="N12" s="52"/>
       <c r="O12" s="28"/>
       <c r="P12" s="53"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
       <c r="U12" s="54"/>
       <c r="V12" s="55"/>
       <c r="W12" s="56"/>
@@ -2280,8 +2288,8 @@
       <c r="N13" s="52"/>
       <c r="O13" s="28"/>
       <c r="P13" s="53"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
       <c r="U13" s="54"/>
       <c r="V13" s="55"/>
       <c r="W13" s="56"/>
@@ -2309,8 +2317,8 @@
       <c r="N14" s="52"/>
       <c r="O14" s="28"/>
       <c r="P14" s="53"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
       <c r="U14" s="54"/>
       <c r="V14" s="55"/>
       <c r="W14" s="56"/>
@@ -2338,8 +2346,8 @@
       <c r="N15" s="52"/>
       <c r="O15" s="28"/>
       <c r="P15" s="53"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
       <c r="U15" s="54"/>
       <c r="V15" s="55"/>
       <c r="W15" s="56"/>
@@ -2367,8 +2375,8 @@
       <c r="N16" s="52"/>
       <c r="O16" s="28"/>
       <c r="P16" s="53"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
       <c r="U16" s="54"/>
       <c r="V16" s="55"/>
       <c r="W16" s="56"/>
@@ -2396,8 +2404,8 @@
       <c r="N17" s="52"/>
       <c r="O17" s="28"/>
       <c r="P17" s="53"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
       <c r="U17" s="54"/>
       <c r="V17" s="55"/>
       <c r="W17" s="56"/>
@@ -2425,8 +2433,8 @@
       <c r="N18" s="52"/>
       <c r="O18" s="28"/>
       <c r="P18" s="53"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
       <c r="U18" s="54"/>
       <c r="V18" s="55"/>
       <c r="W18" s="56"/>
@@ -2454,8 +2462,8 @@
       <c r="N19" s="52"/>
       <c r="O19" s="28"/>
       <c r="P19" s="53"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="54"/>
       <c r="V19" s="55"/>
       <c r="W19" s="56"/>
@@ -2483,8 +2491,8 @@
       <c r="N20" s="52"/>
       <c r="O20" s="28"/>
       <c r="P20" s="53"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
       <c r="U20" s="54"/>
       <c r="V20" s="55"/>
       <c r="W20" s="56"/>
@@ -2512,8 +2520,8 @@
       <c r="N21" s="52"/>
       <c r="O21" s="28"/>
       <c r="P21" s="53"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
       <c r="U21" s="54"/>
       <c r="V21" s="55"/>
       <c r="W21" s="56"/>
@@ -2541,8 +2549,8 @@
       <c r="N22" s="52"/>
       <c r="O22" s="28"/>
       <c r="P22" s="53"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
       <c r="U22" s="54"/>
       <c r="V22" s="55"/>
       <c r="W22" s="56"/>
@@ -2570,8 +2578,8 @@
       <c r="N23" s="52"/>
       <c r="O23" s="28"/>
       <c r="P23" s="53"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
       <c r="U23" s="54"/>
       <c r="V23" s="55"/>
       <c r="W23" s="56"/>
@@ -2599,8 +2607,8 @@
       <c r="N24" s="52"/>
       <c r="O24" s="28"/>
       <c r="P24" s="53"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
       <c r="U24" s="54"/>
       <c r="V24" s="55"/>
       <c r="W24" s="56"/>
@@ -2628,8 +2636,8 @@
       <c r="N25" s="52"/>
       <c r="O25" s="28"/>
       <c r="P25" s="53"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
       <c r="U25" s="54"/>
       <c r="V25" s="55"/>
       <c r="W25" s="56"/>
@@ -2657,8 +2665,8 @@
       <c r="N26" s="52"/>
       <c r="O26" s="28"/>
       <c r="P26" s="53"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
       <c r="U26" s="54"/>
       <c r="V26" s="55"/>
       <c r="W26" s="56"/>
@@ -2686,8 +2694,8 @@
       <c r="N27" s="52"/>
       <c r="O27" s="28"/>
       <c r="P27" s="53"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
       <c r="U27" s="54"/>
       <c r="V27" s="55"/>
       <c r="W27" s="56"/>
@@ -2715,8 +2723,8 @@
       <c r="N28" s="52"/>
       <c r="O28" s="28"/>
       <c r="P28" s="53"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
       <c r="U28" s="54"/>
       <c r="V28" s="55"/>
       <c r="W28" s="56"/>
@@ -2744,8 +2752,8 @@
       <c r="N29" s="52"/>
       <c r="O29" s="28"/>
       <c r="P29" s="53"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="54"/>
       <c r="V29" s="55"/>
       <c r="W29" s="56"/>
@@ -2773,2256 +2781,8 @@
       <c r="N30" s="52"/>
       <c r="O30" s="28"/>
       <c r="P30" s="53"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-  </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
-      <formula1>"K,L3,L2,L1"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
-      <formula1>"unfocused,focused"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
-      <formula1>0</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
-      <formula1>1</formula1>
-      <formula2>24</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
-      <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
-      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:U30" type="none">
-      <formula1>-150</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:AD30"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="str">
-        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD5" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="43" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="44" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="44" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="44" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="45" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="53"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="58"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="53"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="58"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="53"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="58"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="53"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="58"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="53"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="58"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="53"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="58"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="53"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="58"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="53"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="58"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="53"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="58"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="53"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="58"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="53"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="58"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="53"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="58"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="53"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="58"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="53"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="58"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="53"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="53"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="53"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="53"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="53"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="53"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="53"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="53"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="53"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="53"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-  </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
-      <formula1>"K,L3,L2,L1"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
-      <formula1>"unfocused,focused"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
-      <formula1>0</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
-      <formula1>1</formula1>
-      <formula2>24</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
-      <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
-      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:U30" type="none">
-      <formula1>-150</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:AD30"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="str">
-        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD5" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="43" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="44" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="44" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="44" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="45" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="53"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="58"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="53"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="58"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="53"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="58"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="53"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="58"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="53"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="58"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="53"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="58"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="53"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="58"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="53"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="58"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="53"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="58"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="53"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="58"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="53"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="58"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="53"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="58"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="53"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="58"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="53"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="58"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="53"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="53"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="53"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="53"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="53"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="53"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="53"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="53"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="53"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="53"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
       <c r="U30" s="54"/>
       <c r="V30" s="55"/>
       <c r="W30" s="56"/>
@@ -5097,6 +2857,2272 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:U30" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:AD30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="N2" activeCellId="0" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 9</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="43" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="44" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="44" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="44" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="44" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="45" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="53"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="58"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="53"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="58"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="53"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="58"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="47"/>
+      <c r="C10" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="53"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="58"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="53"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="58"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="47"/>
+      <c r="C12" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="53"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="58"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="47"/>
+      <c r="C13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="53"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="58"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="47"/>
+      <c r="C14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="53"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="58"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="47"/>
+      <c r="C15" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="53"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="58"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="53"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="58"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="47"/>
+      <c r="C17" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="53"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="58"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="47"/>
+      <c r="C18" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="53"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="58"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="47"/>
+      <c r="C19" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="53"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="58"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="53"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="58"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="47"/>
+      <c r="C21" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="53"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="58"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="53"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="58"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="53"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="58"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="47"/>
+      <c r="C24" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="53"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="53"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="58"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="47"/>
+      <c r="C26" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="53"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="58"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="47"/>
+      <c r="C27" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="53"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="58"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="47"/>
+      <c r="C28" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="53"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="47"/>
+      <c r="C29" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="53"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="58"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="47"/>
+      <c r="C30" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="53"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+  </mergeCells>
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:U30" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:AD30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="N2" activeCellId="0" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 9</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="43" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="44" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="44" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="44" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="44" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="45" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="53"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="58"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="53"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="58"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="53"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="58"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="47"/>
+      <c r="C10" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="53"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="58"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="53"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="58"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="47"/>
+      <c r="C12" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="53"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="58"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="47"/>
+      <c r="C13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="53"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="58"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="47"/>
+      <c r="C14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="53"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="58"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="47"/>
+      <c r="C15" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="53"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="58"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="53"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="58"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="47"/>
+      <c r="C17" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="53"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="58"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="47"/>
+      <c r="C18" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="53"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="58"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="47"/>
+      <c r="C19" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="53"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="58"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="53"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="58"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="47"/>
+      <c r="C21" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="53"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="58"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="53"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="58"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="53"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="58"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="47"/>
+      <c r="C24" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="53"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="53"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="58"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="47"/>
+      <c r="C26" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="53"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="58"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="47"/>
+      <c r="C27" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="53"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="58"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="47"/>
+      <c r="C28" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="53"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="47"/>
+      <c r="C29" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="53"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="58"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="47"/>
+      <c r="C30" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="53"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+  </mergeCells>
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
@@ -5104,6 +5130,10 @@
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5123,13 +5153,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5148,7 +5178,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="59"/>
     </row>
@@ -5226,6 +5256,14 @@
       </c>
       <c r="B13" s="0" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -54,6 +54,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -61,7 +103,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -90,6 +132,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -97,7 +181,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -123,6 +207,48 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
         </r>
       </text>
     </comment>
@@ -450,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -630,6 +756,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal style="medium"/>
+    </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="thin"/>
@@ -667,7 +806,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,6 +979,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -852,7 +995,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -991,9 +1134,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
+      <xdr:colOff>818640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1002,8 +1145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3196080" y="6959880"/>
-          <a:ext cx="6644880" cy="1854720"/>
+          <a:off x="3197160" y="6959880"/>
+          <a:ext cx="6645960" cy="1854360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1246,9 +1389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
+      <xdr:colOff>818640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1257,8 +1400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3196080" y="6959880"/>
-          <a:ext cx="6644880" cy="1854720"/>
+          <a:off x="3197160" y="6959880"/>
+          <a:ext cx="6645960" cy="1854360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1501,9 +1644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
+      <xdr:colOff>818640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1512,8 +1655,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3196080" y="6959880"/>
-          <a:ext cx="6644880" cy="1854720"/>
+          <a:off x="3197160" y="6959880"/>
+          <a:ext cx="6645960" cy="1854360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,10 +1900,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2062,735 +2205,735 @@
       <c r="Q6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="41"/>
+      <c r="R6" s="43"/>
       <c r="S6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="43" t="n">
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="44" t="n">
+      <c r="W6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="44" t="n">
+      <c r="X6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="44" t="n">
+      <c r="Y6" s="45" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="44" t="n">
+      <c r="Z6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="45" t="n">
+      <c r="AA6" s="46" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="46"/>
+      <c r="AB6" s="47"/>
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="49"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="50"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="28"/>
-      <c r="P7" s="53"/>
+      <c r="P7" s="54"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="58"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="49"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="50"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="52"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="53"/>
+      <c r="P8" s="54"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="58"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="52"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="53"/>
+      <c r="P9" s="54"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="58"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="52"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="28"/>
-      <c r="P10" s="53"/>
+      <c r="P10" s="54"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="58"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="59"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="52"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="53"/>
+      <c r="P11" s="54"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="58"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="59"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="52"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="28"/>
-      <c r="P12" s="53"/>
+      <c r="P12" s="54"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="58"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="59"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="52"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="53"/>
+      <c r="P13" s="54"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="58"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="59"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="52"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="53"/>
+      <c r="P14" s="54"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="58"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="59"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="52"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="53"/>
+      <c r="P15" s="54"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="58"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="52"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="53"/>
+      <c r="P16" s="54"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="58"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="59"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="52"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="53"/>
+      <c r="P17" s="54"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="58"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="59"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="52"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="53"/>
+      <c r="P18" s="54"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="58"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="59"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="52"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="53"/>
+      <c r="P19" s="54"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="58"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="59"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="52"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="53"/>
+      <c r="P20" s="54"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="58"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="59"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="52"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="53"/>
+      <c r="P21" s="54"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="59"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="52"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="53"/>
+      <c r="P22" s="54"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="59"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="52"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="53"/>
+      <c r="P23" s="54"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="59"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="52"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="53"/>
+      <c r="P24" s="54"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="59"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="52"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="53"/>
+      <c r="P25" s="54"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="59"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="52"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="53"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="53"/>
+      <c r="P26" s="54"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="59"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="52"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="53"/>
+      <c r="P27" s="54"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="59"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="52"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="53"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="53"/>
+      <c r="P28" s="54"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="59"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="52"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="52"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="53"/>
+      <c r="P29" s="54"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="59"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="52"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="53"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="53"/>
+      <c r="P30" s="54"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2808,67 +2951,71 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:U30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 Q7:U30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:U6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2890,10 +3037,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3195,735 +3342,735 @@
       <c r="Q6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="41"/>
+      <c r="R6" s="43"/>
       <c r="S6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="43" t="n">
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="44" t="n">
+      <c r="W6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="44" t="n">
+      <c r="X6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="44" t="n">
+      <c r="Y6" s="45" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="44" t="n">
+      <c r="Z6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="45" t="n">
+      <c r="AA6" s="46" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="46"/>
+      <c r="AB6" s="47"/>
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="49"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="50"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="28"/>
-      <c r="P7" s="53"/>
+      <c r="P7" s="54"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="58"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="49"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="50"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="52"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="53"/>
+      <c r="P8" s="54"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="58"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="52"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="53"/>
+      <c r="P9" s="54"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="58"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="52"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="28"/>
-      <c r="P10" s="53"/>
+      <c r="P10" s="54"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="58"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="59"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="52"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="53"/>
+      <c r="P11" s="54"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="58"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="59"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="52"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="28"/>
-      <c r="P12" s="53"/>
+      <c r="P12" s="54"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="58"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="59"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="52"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="53"/>
+      <c r="P13" s="54"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="58"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="59"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="52"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="53"/>
+      <c r="P14" s="54"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="58"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="59"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="52"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="53"/>
+      <c r="P15" s="54"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="58"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="52"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="53"/>
+      <c r="P16" s="54"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="58"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="59"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="52"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="53"/>
+      <c r="P17" s="54"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="58"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="59"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="52"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="53"/>
+      <c r="P18" s="54"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="58"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="59"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="52"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="53"/>
+      <c r="P19" s="54"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="58"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="59"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="52"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="53"/>
+      <c r="P20" s="54"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="58"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="59"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="52"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="53"/>
+      <c r="P21" s="54"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="59"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="52"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="53"/>
+      <c r="P22" s="54"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="59"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="52"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="53"/>
+      <c r="P23" s="54"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="59"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="52"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="53"/>
+      <c r="P24" s="54"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="59"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="52"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="53"/>
+      <c r="P25" s="54"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="59"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="52"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="53"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="53"/>
+      <c r="P26" s="54"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="59"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="52"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="53"/>
+      <c r="P27" s="54"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="59"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="52"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="53"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="53"/>
+      <c r="P28" s="54"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="59"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="52"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="52"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="53"/>
+      <c r="P29" s="54"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="59"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="52"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="53"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="53"/>
+      <c r="P30" s="54"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3941,67 +4088,71 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:U30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 Q7:U30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:U6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4023,10 +4174,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4328,735 +4479,735 @@
       <c r="Q6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="41"/>
+      <c r="R6" s="43"/>
       <c r="S6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="43" t="n">
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="44" t="n">
+      <c r="W6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="44" t="n">
+      <c r="X6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="44" t="n">
+      <c r="Y6" s="45" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="44" t="n">
+      <c r="Z6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="45" t="n">
+      <c r="AA6" s="46" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="46"/>
+      <c r="AB6" s="47"/>
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="49"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="50"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="28"/>
-      <c r="P7" s="53"/>
+      <c r="P7" s="54"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="58"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="49"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="50"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="52"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="53"/>
+      <c r="P8" s="54"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="58"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="52"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="53"/>
+      <c r="P9" s="54"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="58"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="52"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="28"/>
-      <c r="P10" s="53"/>
+      <c r="P10" s="54"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="58"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="59"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="52"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="53"/>
+      <c r="P11" s="54"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="58"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="59"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="52"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="28"/>
-      <c r="P12" s="53"/>
+      <c r="P12" s="54"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="58"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="59"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="52"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="53"/>
+      <c r="P13" s="54"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="58"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="59"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="52"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="53"/>
+      <c r="P14" s="54"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="58"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="59"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="52"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="53"/>
+      <c r="P15" s="54"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="58"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="52"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="53"/>
+      <c r="P16" s="54"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="58"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="59"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="52"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="53"/>
+      <c r="P17" s="54"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="58"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="59"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="52"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="53"/>
+      <c r="P18" s="54"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="58"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="59"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="52"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="53"/>
+      <c r="P19" s="54"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="58"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="59"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="52"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="53"/>
+      <c r="P20" s="54"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="58"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="59"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="52"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="53"/>
+      <c r="P21" s="54"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="58"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="59"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="52"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="53"/>
+      <c r="P22" s="54"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="59"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="52"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="53"/>
+      <c r="P23" s="54"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="58"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="59"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="52"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="53"/>
+      <c r="P24" s="54"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="59"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="52"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="53"/>
+      <c r="P25" s="54"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="59"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="52"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="53"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="53"/>
+      <c r="P26" s="54"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="58"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="59"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="52"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="53"/>
+      <c r="P27" s="54"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="58"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="59"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="52"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="53"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="53"/>
+      <c r="P28" s="54"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="59"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="52"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="52"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="53"/>
+      <c r="P29" s="54"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="58"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="59"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="52"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="53"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="53"/>
+      <c r="P30" s="54"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5074,71 +5225,75 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q7 S6 Q8:Q30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:U30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
-      <formula1>1</formula1>
-      <formula2>0</formula2>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:U6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5159,13 +5314,13 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="60" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
         <v>57</v>
       </c>
@@ -5174,23 +5329,23 @@
       <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27"/>
-      <c r="B4" s="59"/>
+      <c r="B4" s="60"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="60" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5269,7 +5424,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -103,7 +103,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -181,7 +181,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="70">
   <si>
     <t xml:space="preserve">Grid</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t xml:space="preserve">Loop over entire macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add slit height to glancing angle spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1134,9 +1137,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818640</xdr:colOff>
+      <xdr:colOff>818280</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1145,8 +1148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197160" y="6959880"/>
-          <a:ext cx="6645960" cy="1854360"/>
+          <a:off x="3197880" y="6959880"/>
+          <a:ext cx="6645960" cy="1854000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,9 +1392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818640</xdr:colOff>
+      <xdr:colOff>818280</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1400,8 +1403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197160" y="6959880"/>
-          <a:ext cx="6645960" cy="1854360"/>
+          <a:off x="3197880" y="6959880"/>
+          <a:ext cx="6645960" cy="1854000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1644,9 +1647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818640</xdr:colOff>
+      <xdr:colOff>818280</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1655,8 +1658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197160" y="6959880"/>
-          <a:ext cx="6645960" cy="1854360"/>
+          <a:off x="3197880" y="6959880"/>
+          <a:ext cx="6645960" cy="1854000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1903,7 +1906,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -1960,7 +1963,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -2952,70 +2955,70 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 Q7:U30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 Q7:U30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3040,7 +3043,7 @@
       <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3097,7 +3100,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -4089,70 +4092,70 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 Q7:U30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 Q7:U30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4177,7 +4180,7 @@
       <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4234,7 +4237,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -5226,74 +5229,74 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q7 S6 Q8:Q30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q7 S6 Q8:Q30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:U30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:U6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:U30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:U6" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5308,13 +5311,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5333,7 +5336,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="60"/>
     </row>
@@ -5421,10 +5424,18 @@
         <v>68</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -1137,9 +1137,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818280</xdr:colOff>
+      <xdr:colOff>817920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1148,8 +1148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197880" y="6959880"/>
-          <a:ext cx="6645960" cy="1854000"/>
+          <a:off x="3198600" y="6959880"/>
+          <a:ext cx="6646320" cy="1853640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1392,9 +1392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818280</xdr:colOff>
+      <xdr:colOff>817920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1403,8 +1403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197880" y="6959880"/>
-          <a:ext cx="6645960" cy="1854000"/>
+          <a:off x="3198600" y="6959880"/>
+          <a:ext cx="6646320" cy="1853640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1643,13 +1643,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>617400</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>818280</xdr:colOff>
+      <xdr:colOff>817920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1658,8 +1658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3197880" y="6959880"/>
-          <a:ext cx="6645960" cy="1854000"/>
+          <a:off x="3198600" y="6959880"/>
+          <a:ext cx="6646320" cy="1853640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1906,7 +1906,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2223,8 +2223,8 @@
         <v>1</v>
       </c>
       <c r="X6" s="45" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="Y6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -3040,10 +3040,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3360,8 +3360,8 @@
         <v>1</v>
       </c>
       <c r="X6" s="45" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="Y6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -4177,10 +4177,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4348,7 +4348,7 @@
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
     </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
         <v>16</v>
@@ -4497,8 +4497,8 @@
         <v>1</v>
       </c>
       <c r="X6" s="45" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="Y6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -5317,7 +5317,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -1224,9 +1224,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>849960</xdr:colOff>
+      <xdr:colOff>1128600</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1235,8 +1235,263 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3234960" y="6959880"/>
-          <a:ext cx="6648480" cy="1852560"/>
+          <a:off x="3235320" y="6959880"/>
+          <a:ext cx="6927840" cy="1852200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="73080">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>Instructions:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>5. Specify motor names and positions in columns Q,R,S,T,U,V; leave blank for no motion</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Specify detector position in column W, blank means to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>not move</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> the detector </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Do not add rows above row 7</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>7. Do not add columns before column AG</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>996120</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>128880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3382200" y="7083360"/>
+          <a:ext cx="6648480" cy="1852200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,622 +1723,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>996480</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3381480" y="7083360"/>
-          <a:ext cx="6648480" cy="1852560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="73080">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Instructio</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>ns:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>1. Add the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>names of all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>team </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>members to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the green </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>box in row 1</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>2. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>go in line 6</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>3. Sample-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>specific </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>are entered </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>in rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>4. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values from </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>line 6 will be </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>used for all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>cells left </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>5. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motor </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>names and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>positions in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Q,R,S,T; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>leave blank </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>for no </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motion</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>detector </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>position in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column U, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>means to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>not move</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the detector </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add rows </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>above row 7</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>7. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>before </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column AG</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
@@ -2095,9 +1734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>816840</xdr:colOff>
+      <xdr:colOff>816480</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2106,8 +1745,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3201840" y="6959880"/>
-          <a:ext cx="6648480" cy="1852560"/>
+          <a:off x="3202200" y="6959880"/>
+          <a:ext cx="6648840" cy="1852200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2351,10 +1990,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3511,7 +3150,7 @@
       <selection pane="bottomRight" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4668,7 +4307,7 @@
       <selection pane="bottomRight" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -5825,7 +5464,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="75">
   <si>
     <t xml:space="preserve">Grid</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t xml:space="preserve">add a third motor to the grid spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added orientation and retraction distance to glancing angle spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1224,9 +1227,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1128600</xdr:colOff>
+      <xdr:colOff>1128240</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1235,8 +1238,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3235320" y="6959880"/>
-          <a:ext cx="6927840" cy="1852200"/>
+          <a:off x="3236040" y="6959880"/>
+          <a:ext cx="6928200" cy="1851840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,9 +1482,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>996120</xdr:colOff>
+      <xdr:colOff>995760</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1490,8 +1493,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3382200" y="7083360"/>
-          <a:ext cx="6648480" cy="1852200"/>
+          <a:off x="3382560" y="7083360"/>
+          <a:ext cx="6649200" cy="1851840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1734,9 +1737,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>816480</xdr:colOff>
+      <xdr:colOff>816120</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1745,8 +1748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3202200" y="6959880"/>
-          <a:ext cx="6648840" cy="1852200"/>
+          <a:off x="3202920" y="6959880"/>
+          <a:ext cx="6649200" cy="1851840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1993,7 +1996,7 @@
       <selection pane="bottomRight" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2054,7 +2057,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="7" t="s">
@@ -3150,7 +3153,7 @@
       <selection pane="bottomRight" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3211,7 +3214,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="7" t="s">
@@ -4307,7 +4310,7 @@
       <selection pane="bottomRight" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4368,7 +4371,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="7" t="s">
@@ -5458,13 +5461,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5483,7 +5486,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="63"/>
     </row>
@@ -5585,6 +5588,14 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0">
+    <comment ref="Q6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0">
+    <comment ref="S6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V6" authorId="0">
+    <comment ref="U6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,6 +97,34 @@
       </text>
     </comment>
     <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0">
+    <comment ref="Q6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0">
+    <comment ref="S6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V6" authorId="0">
+    <comment ref="U6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -189,6 +217,34 @@
       </text>
     </comment>
     <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0">
+    <comment ref="Q6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0">
+    <comment ref="S6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V6" authorId="0">
+    <comment ref="U6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -294,12 +350,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="X6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="78">
   <si>
     <t xml:space="preserve">Grid</t>
   </si>
@@ -307,180 +391,186 @@
     <t xml:space="preserve">Experimenters:</t>
   </si>
   <si>
+    <t xml:space="preserve">Close shutter at end?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add element to filename?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of repetitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan numbers and plotting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photon delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancillary information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure this sample?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting scan number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotting mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorption edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focused/ unfocused beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample composition or stoichiometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation of sample for XAS measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment – anything else you want to say about your sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detector X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor 1 absolute position (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor 2 absolute position (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor 3 absolute position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slit width (absolute width, mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slit height (absolute height, mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snapshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">htmlpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usbstick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bothways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">channelcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ththth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best_sample_ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluorescence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfocused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YBa2Cu3O7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powder on tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to BMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-200  -30  -10 25  15k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10  2  0.3  0.05k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5  0.5  0.5  0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xafs_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xafs_y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xafs_pitch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Change edge at start?</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close shutter at end?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add element to filename?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of repetitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scan numbers and plotting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photon delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scan parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancillary information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure this sample?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting scan number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plotting mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absorption edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focused/ unfocused beam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample composition or stoichiometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparation of sample for XAS measurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment – anything else you want to say about your sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scan boundaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor 1 absolute position (mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor 2 absolute position (mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor 3 absolute position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detector X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snapshots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">htmlpage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usbstick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bothways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">channelcut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ththth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best_sample_ever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fluorescence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfocused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YBa2Cu3O7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powder on tape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to BMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-200  -30  -10 25  15k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10  2  0.3  0.05k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5  0.5  0.5  0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xafs_x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xafs_y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xafs_pitch</t>
-  </si>
-  <si>
     <t xml:space="preserve">Current</t>
   </si>
   <si>
@@ -524,6 +614,9 @@
   </si>
   <si>
     <t xml:space="preserve">added orientation and retraction distance to glancing angle spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add columns for sample X/Y + slit W/H to all spreadsheet types, also remove “Change edge at start?” + deprecate e0 column + deprecate single wheel spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -642,7 +735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -710,13 +803,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -826,7 +912,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalUp="true" diagonalDown="true">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
@@ -835,7 +921,7 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="medium"/>
     </border>
     <border diagonalUp="true" diagonalDown="true">
       <left style="thin">
@@ -861,6 +947,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -887,7 +995,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1000,10 +1108,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1012,16 +1116,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1037,30 +1145,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1068,80 +1180,84 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1221,15 +1337,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>650520</xdr:colOff>
+      <xdr:colOff>606600</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1128240</xdr:colOff>
+      <xdr:colOff>1082880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1238,8 +1354,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3236040" y="6959880"/>
-          <a:ext cx="6928200" cy="1851840"/>
+          <a:off x="3195360" y="7013160"/>
+          <a:ext cx="6929640" cy="1850400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,7 +1489,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify motor names and positions in columns Q,R,S,T,U,V; leave blank for no motion</a:t>
+            <a:t>5. Specify motor names and positions in columns R,S,T,U,V,W; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1392,7 +1508,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify detector position in column W, blank means to </a:t>
+            <a:t>6. Specify detector position in column Q, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1448,7 +1564,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not add columns before column AG</a:t>
+            <a:t>7. Do not add columns before column AI</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1475,16 +1591,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>995760</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:colOff>1188000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1493,8 +1609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3382560" y="7083360"/>
-          <a:ext cx="6649200" cy="1851840"/>
+          <a:off x="3300480" y="7160760"/>
+          <a:ext cx="6929640" cy="1850400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1628,7 +1744,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify motor names and positions in columns Q,R,S,T; leave blank for no motion</a:t>
+            <a:t>5. Specify motor names and positions in columns R,S,T,U,V,W; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1647,7 +1763,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify detector position in column U, blank means to </a:t>
+            <a:t>6. Specify detector position in column Q, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1703,7 +1819,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not add columns before column AG</a:t>
+            <a:t>7. Do not add columns before column AI</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1731,15 +1847,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>617400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:colOff>711720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>816120</xdr:colOff>
+      <xdr:colOff>1188000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1748,8 +1864,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3202920" y="6959880"/>
-          <a:ext cx="6649200" cy="1851840"/>
+          <a:off x="3300480" y="7020000"/>
+          <a:ext cx="6929640" cy="1850400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1883,7 +1999,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify motor names and positions in columns Q,R,S,T; leave blank for no motion</a:t>
+            <a:t>5. Specify motor names and positions in columns R,S,T,U,V,W; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1902,7 +2018,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify detector position in column U, blank means to </a:t>
+            <a:t>6. Specify detector position in column Q, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1958,7 +2074,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not add columns before column AG</a:t>
+            <a:t>7. Do not add columns before column AI</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1986,17 +2102,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AF30"/>
+  <dimension ref="B1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J25" activeCellId="0" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2008,16 +2124,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="24" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="26" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2053,35 +2169,30 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 12</v>
+        <v>Version: 13</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>1</v>
@@ -2094,12 +2205,14 @@
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="10"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
-      <c r="AC2" s="10"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -2118,41 +2231,43 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="10"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
-      <c r="AC3" s="10"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -2160,912 +2275,899 @@
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
-      <c r="X4" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
+      <c r="Z4" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="L5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="M5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="O5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="P5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="R5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="S5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="T5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="U5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="V5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="W5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="28" t="s">
+      <c r="X5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="Y5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Z5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="AA5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AB5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AC5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AD5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AE5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="29" t="s">
+      <c r="AF5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AF5" s="29" t="s">
+      <c r="AG5" s="28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="AH5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="31" t="n">
+    </row>
+    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="L6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="M6" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="N6" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="O6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="P6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="43" t="s">
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46" t="s">
+      <c r="S6" s="45"/>
+      <c r="T6" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="V6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="44" t="s">
+        <v>60</v>
+      </c>
       <c r="W6" s="45"/>
-      <c r="X6" s="47" t="n">
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="48" t="n">
+      <c r="AA6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="48" t="n">
+      <c r="AB6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="48" t="n">
+      <c r="AC6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="48" t="n">
+      <c r="AD6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AC6" s="49" t="n">
+      <c r="AE6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="51"/>
-      <c r="C7" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="53"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="52"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="57"/>
-      <c r="S7" s="11"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="56"/>
       <c r="T7" s="11"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="62"/>
+      <c r="U7" s="11"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="51"/>
-      <c r="C8" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="52"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="57"/>
-      <c r="S8" s="11"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="56"/>
       <c r="T8" s="11"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="62"/>
+      <c r="U8" s="11"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="30"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="57"/>
-      <c r="S9" s="11"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="56"/>
       <c r="T9" s="11"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="62"/>
+      <c r="U9" s="11"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="30"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="57"/>
-      <c r="S10" s="11"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="56"/>
       <c r="T10" s="11"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="62"/>
+      <c r="U10" s="11"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="51"/>
-      <c r="C11" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="30"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="57"/>
-      <c r="S11" s="11"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="56"/>
       <c r="T11" s="11"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="62"/>
+      <c r="U11" s="11"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="30"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="57"/>
-      <c r="S12" s="11"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="56"/>
       <c r="T12" s="11"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="62"/>
+      <c r="U12" s="11"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="51"/>
-      <c r="C13" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="30"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="57"/>
-      <c r="S13" s="11"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="56"/>
       <c r="T13" s="11"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="62"/>
+      <c r="U13" s="11"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="30"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="57"/>
-      <c r="S14" s="11"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="56"/>
       <c r="T14" s="11"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="62"/>
+      <c r="U14" s="11"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="51"/>
-      <c r="C15" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="30"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="57"/>
-      <c r="S15" s="11"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="56"/>
       <c r="T15" s="11"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="62"/>
+      <c r="U15" s="11"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="60"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="51"/>
-      <c r="C16" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="30"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="29"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="57"/>
-      <c r="S16" s="11"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="56"/>
       <c r="T16" s="11"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="62"/>
+      <c r="U16" s="11"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="60"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="51"/>
-      <c r="C17" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="30"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="29"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="57"/>
-      <c r="S17" s="11"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="56"/>
       <c r="T17" s="11"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="62"/>
+      <c r="U17" s="11"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="60"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="30"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="57"/>
-      <c r="S18" s="11"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="56"/>
       <c r="T18" s="11"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="62"/>
+      <c r="U18" s="11"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="60"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="30"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="29"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="57"/>
-      <c r="S19" s="11"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="56"/>
       <c r="T19" s="11"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="62"/>
+      <c r="U19" s="11"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="60"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="30"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="29"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="57"/>
-      <c r="S20" s="11"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="56"/>
       <c r="T20" s="11"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="62"/>
+      <c r="U20" s="11"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="60"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="30"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="29"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="57"/>
-      <c r="S21" s="11"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="56"/>
       <c r="T21" s="11"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
+      <c r="U21" s="11"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="60"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="30"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="29"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="57"/>
-      <c r="S22" s="11"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="56"/>
       <c r="T22" s="11"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
+      <c r="U22" s="11"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="60"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="51"/>
-      <c r="C23" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="30"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="29"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="57"/>
-      <c r="S23" s="11"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="56"/>
       <c r="T23" s="11"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="62"/>
+      <c r="U23" s="11"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="60"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="30"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="29"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="57"/>
-      <c r="S24" s="11"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="56"/>
       <c r="T24" s="11"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
+      <c r="U24" s="11"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="60"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="30"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="29"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="57"/>
-      <c r="S25" s="11"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="56"/>
       <c r="T25" s="11"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="62"/>
+      <c r="U25" s="11"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="60"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="30"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="29"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="57"/>
-      <c r="S26" s="11"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="56"/>
       <c r="T26" s="11"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="62"/>
+      <c r="U26" s="11"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="60"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="30"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="29"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="57"/>
-      <c r="S27" s="11"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="56"/>
       <c r="T27" s="11"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="62"/>
+      <c r="U27" s="11"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="60"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="30"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="29"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="57"/>
-      <c r="S28" s="11"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="56"/>
       <c r="T28" s="11"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="62"/>
+      <c r="U28" s="11"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="60"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="30"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="29"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="57"/>
-      <c r="S29" s="11"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="56"/>
       <c r="T29" s="11"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="62"/>
+      <c r="U29" s="11"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="60"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="51"/>
-      <c r="C30" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="30"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="57"/>
-      <c r="S30" s="11"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="56"/>
       <c r="T30" s="11"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="61"/>
-      <c r="AD30" s="62"/>
+      <c r="U30" s="11"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AC1"/>
+    <mergeCell ref="E1:AE1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AC4"/>
-    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="Q4:Y4"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6:AC30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3085,11 +3187,7 @@
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
-      <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD6:AF6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -3113,7 +3211,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 Q7:W30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -3121,9 +3219,13 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:W6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3143,17 +3245,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AF30"/>
+  <dimension ref="B1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q20" activeCellId="0" sqref="Q20"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3165,16 +3267,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="24" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="26" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3210,35 +3312,37 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 12</v>
+        <v>Version: 13</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>1</v>
@@ -3251,12 +3355,14 @@
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="10"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
-      <c r="AC2" s="10"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -3275,41 +3381,43 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="10"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
-      <c r="AC3" s="10"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -3317,898 +3425,909 @@
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
-      <c r="X4" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
+      <c r="Z4" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="L5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="M5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="O5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="P5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="R5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="S5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="T5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="U5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="V5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="W5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="28" t="s">
+      <c r="X5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="Y5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Z5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="AA5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AB5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AC5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AD5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AE5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="29" t="s">
+      <c r="AF5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AF5" s="29" t="s">
+      <c r="AG5" s="28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="AH5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="31" t="n">
+    </row>
+    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="L6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="M6" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="N6" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="O6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="P6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="43" t="s">
+      <c r="Q6" s="43"/>
+      <c r="R6" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46" t="s">
+      <c r="S6" s="45"/>
+      <c r="T6" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="V6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="44" t="s">
+        <v>60</v>
+      </c>
       <c r="W6" s="45"/>
-      <c r="X6" s="47" t="n">
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="48" t="n">
+      <c r="AA6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="48" t="n">
+      <c r="AB6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="48" t="n">
+      <c r="AC6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="48" t="n">
+      <c r="AD6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AC6" s="49" t="n">
+      <c r="AE6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="51"/>
-      <c r="C7" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="53"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="52"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="57"/>
-      <c r="S7" s="11"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="56"/>
       <c r="T7" s="11"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="62"/>
+      <c r="U7" s="11"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="51"/>
-      <c r="C8" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="52"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="57"/>
-      <c r="S8" s="11"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="56"/>
       <c r="T8" s="11"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="62"/>
+      <c r="U8" s="11"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="30"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="57"/>
-      <c r="S9" s="11"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="56"/>
       <c r="T9" s="11"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="62"/>
+      <c r="U9" s="11"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="30"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="57"/>
-      <c r="S10" s="11"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="56"/>
       <c r="T10" s="11"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="62"/>
+      <c r="U10" s="11"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="51"/>
-      <c r="C11" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="30"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="57"/>
-      <c r="S11" s="11"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="56"/>
       <c r="T11" s="11"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="62"/>
+      <c r="U11" s="11"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="30"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="57"/>
-      <c r="S12" s="11"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="56"/>
       <c r="T12" s="11"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="62"/>
+      <c r="U12" s="11"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="51"/>
-      <c r="C13" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="30"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="57"/>
-      <c r="S13" s="11"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="56"/>
       <c r="T13" s="11"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="62"/>
+      <c r="U13" s="11"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="30"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="57"/>
-      <c r="S14" s="11"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="56"/>
       <c r="T14" s="11"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="62"/>
+      <c r="U14" s="11"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="51"/>
-      <c r="C15" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="30"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="57"/>
-      <c r="S15" s="11"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="56"/>
       <c r="T15" s="11"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="62"/>
+      <c r="U15" s="11"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="60"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="51"/>
-      <c r="C16" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="30"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="29"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="57"/>
-      <c r="S16" s="11"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="56"/>
       <c r="T16" s="11"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="62"/>
+      <c r="U16" s="11"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="60"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="51"/>
-      <c r="C17" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="30"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="29"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="57"/>
-      <c r="S17" s="11"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="56"/>
       <c r="T17" s="11"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="62"/>
+      <c r="U17" s="11"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="60"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="30"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="57"/>
-      <c r="S18" s="11"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="56"/>
       <c r="T18" s="11"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="62"/>
+      <c r="U18" s="11"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="60"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="30"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="29"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="57"/>
-      <c r="S19" s="11"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="56"/>
       <c r="T19" s="11"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="62"/>
+      <c r="U19" s="11"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="60"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="30"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="29"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="57"/>
-      <c r="S20" s="11"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="56"/>
       <c r="T20" s="11"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="62"/>
+      <c r="U20" s="11"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="60"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="30"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="29"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="57"/>
-      <c r="S21" s="11"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="56"/>
       <c r="T21" s="11"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
+      <c r="U21" s="11"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="60"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="30"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="29"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="57"/>
-      <c r="S22" s="11"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="56"/>
       <c r="T22" s="11"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
+      <c r="U22" s="11"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="60"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="51"/>
-      <c r="C23" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="30"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="29"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="57"/>
-      <c r="S23" s="11"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="56"/>
       <c r="T23" s="11"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="62"/>
+      <c r="U23" s="11"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="60"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="30"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="29"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="57"/>
-      <c r="S24" s="11"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="56"/>
       <c r="T24" s="11"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
+      <c r="U24" s="11"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="60"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="30"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="29"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="57"/>
-      <c r="S25" s="11"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="56"/>
       <c r="T25" s="11"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="62"/>
+      <c r="U25" s="11"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="60"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="30"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="29"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="57"/>
-      <c r="S26" s="11"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="56"/>
       <c r="T26" s="11"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="62"/>
+      <c r="U26" s="11"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="60"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="30"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="29"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="57"/>
-      <c r="S27" s="11"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="56"/>
       <c r="T27" s="11"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="62"/>
+      <c r="U27" s="11"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="60"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="30"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="29"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="57"/>
-      <c r="S28" s="11"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="56"/>
       <c r="T28" s="11"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="62"/>
+      <c r="U28" s="11"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="60"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="30"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="29"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="57"/>
-      <c r="S29" s="11"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="56"/>
       <c r="T29" s="11"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="62"/>
+      <c r="U29" s="11"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="60"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="51"/>
-      <c r="C30" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="30"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="57"/>
-      <c r="S30" s="11"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="56"/>
       <c r="T30" s="11"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="61"/>
-      <c r="AD30" s="62"/>
+      <c r="U30" s="11"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AC1"/>
+    <mergeCell ref="E1:AE1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
@@ -4217,12 +4336,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AC4"/>
-    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="Q4:Y4"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6:AC30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4242,11 +4361,7 @@
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
-      <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD6:AF6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -4270,7 +4385,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 Q7:W30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -4278,9 +4393,13 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:W6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4300,17 +4419,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AF30"/>
+  <dimension ref="B1:AH30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q18" activeCellId="0" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4322,16 +4441,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="24" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="26" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4367,35 +4486,30 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 12</v>
+        <v>Version: 13</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>1</v>
@@ -4408,12 +4522,14 @@
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="10"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
-      <c r="AC2" s="10"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -4432,41 +4548,43 @@
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="10"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
-      <c r="AC3" s="10"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -4474,912 +4592,921 @@
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
-      <c r="X4" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
+      <c r="Z4" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="L5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="M5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="O5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="P5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="R5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="S5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="T5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="U5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="V5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="W5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="28" t="s">
+      <c r="X5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="Y5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Z5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="AA5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AB5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AC5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AD5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AE5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="29" t="s">
+      <c r="AF5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AF5" s="29" t="s">
+      <c r="AG5" s="28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="AH5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="31" t="n">
+    </row>
+    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="L6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="M6" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="N6" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="O6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="P6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="43" t="s">
+      <c r="Q6" s="43"/>
+      <c r="R6" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46" t="s">
+      <c r="S6" s="45"/>
+      <c r="T6" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="V6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="44" t="s">
+        <v>60</v>
+      </c>
       <c r="W6" s="45"/>
-      <c r="X6" s="47" t="n">
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="48" t="n">
+      <c r="AA6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="48" t="n">
+      <c r="AB6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="48" t="n">
+      <c r="AC6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="48" t="n">
+      <c r="AD6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AC6" s="49" t="n">
+      <c r="AE6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="51"/>
-      <c r="C7" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="53"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="52"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="57"/>
-      <c r="S7" s="11"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="56"/>
       <c r="T7" s="11"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="62"/>
+      <c r="U7" s="11"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="51"/>
-      <c r="C8" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="52"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="57"/>
-      <c r="S8" s="11"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="56"/>
       <c r="T8" s="11"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="62"/>
+      <c r="U8" s="11"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="30"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="57"/>
-      <c r="S9" s="11"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="56"/>
       <c r="T9" s="11"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="62"/>
+      <c r="U9" s="11"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="30"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="57"/>
-      <c r="S10" s="11"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="56"/>
       <c r="T10" s="11"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="62"/>
+      <c r="U10" s="11"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="51"/>
-      <c r="C11" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="30"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="57"/>
-      <c r="S11" s="11"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="56"/>
       <c r="T11" s="11"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="62"/>
+      <c r="U11" s="11"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="30"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="57"/>
-      <c r="S12" s="11"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="56"/>
       <c r="T12" s="11"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="62"/>
+      <c r="U12" s="11"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="51"/>
-      <c r="C13" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="30"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="57"/>
-      <c r="S13" s="11"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="56"/>
       <c r="T13" s="11"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="62"/>
+      <c r="U13" s="11"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="30"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="57"/>
-      <c r="S14" s="11"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="56"/>
       <c r="T14" s="11"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="62"/>
+      <c r="U14" s="11"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="51"/>
-      <c r="C15" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="30"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="57"/>
-      <c r="S15" s="11"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="56"/>
       <c r="T15" s="11"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="62"/>
+      <c r="U15" s="11"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="60"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="51"/>
-      <c r="C16" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="30"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="29"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="57"/>
-      <c r="S16" s="11"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="56"/>
       <c r="T16" s="11"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="62"/>
+      <c r="U16" s="11"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="60"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="51"/>
-      <c r="C17" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="30"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="29"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="57"/>
-      <c r="S17" s="11"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="56"/>
       <c r="T17" s="11"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="62"/>
+      <c r="U17" s="11"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="60"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="30"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="57"/>
-      <c r="S18" s="11"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="56"/>
       <c r="T18" s="11"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="62"/>
+      <c r="U18" s="11"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="60"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="30"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="29"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="57"/>
-      <c r="S19" s="11"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="56"/>
       <c r="T19" s="11"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="62"/>
+      <c r="U19" s="11"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="60"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="30"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="29"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="57"/>
-      <c r="S20" s="11"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="56"/>
       <c r="T20" s="11"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="62"/>
+      <c r="U20" s="11"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="60"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="30"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="29"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="57"/>
-      <c r="S21" s="11"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="56"/>
       <c r="T21" s="11"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
+      <c r="U21" s="11"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="60"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="30"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="29"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="57"/>
-      <c r="S22" s="11"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="56"/>
       <c r="T22" s="11"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
+      <c r="U22" s="11"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="60"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="51"/>
-      <c r="C23" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="30"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="29"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="57"/>
-      <c r="S23" s="11"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="56"/>
       <c r="T23" s="11"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="62"/>
+      <c r="U23" s="11"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="60"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="30"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="29"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="57"/>
-      <c r="S24" s="11"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="56"/>
       <c r="T24" s="11"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
+      <c r="U24" s="11"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="60"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="30"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="29"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="57"/>
-      <c r="S25" s="11"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="56"/>
       <c r="T25" s="11"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="62"/>
+      <c r="U25" s="11"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="60"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="30"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="29"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="57"/>
-      <c r="S26" s="11"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="56"/>
       <c r="T26" s="11"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="62"/>
+      <c r="U26" s="11"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="60"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="30"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="29"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="57"/>
-      <c r="S27" s="11"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="56"/>
       <c r="T27" s="11"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="62"/>
+      <c r="U27" s="11"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="60"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="30"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="29"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="57"/>
-      <c r="S28" s="11"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="56"/>
       <c r="T28" s="11"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="62"/>
+      <c r="U28" s="11"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="60"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="30"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="29"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="57"/>
-      <c r="S29" s="11"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="56"/>
       <c r="T29" s="11"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="62"/>
+      <c r="U29" s="11"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="60"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="51"/>
-      <c r="C30" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="30"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="57"/>
-      <c r="S30" s="11"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="56"/>
       <c r="T30" s="11"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="61"/>
-      <c r="AD30" s="62"/>
+      <c r="U30" s="11"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AC1"/>
+    <mergeCell ref="E1:AE1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AC4"/>
-    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="Q4:Y4"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6:AC30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5399,11 +5526,7 @@
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
-      <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD6:AF6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -5427,7 +5550,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q30 S6 U7:V30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -5435,11 +5558,15 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6:W6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:T30 W7:W30" type="none">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -5461,45 +5588,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="63" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
-        <v>60</v>
+    <row r="1" s="64" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" s="63"/>
+      <c r="A3" s="28" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" s="64"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="64"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>62</v>
+      <c r="A5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,7 +5642,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,7 +5650,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,7 +5666,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,7 +5674,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,7 +5682,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,7 +5690,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,7 +5698,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,7 +5706,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,7 +5714,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,7 +5722,15 @@
         <v>12</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -11,7 +11,9 @@
     <sheet name="grid1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="grid2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="grid3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Version history" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="grid4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="grid5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Version history" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -51,6 +53,19 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Listing the experimenters is no longer necessary.  The experimenter list will be drawn from the proposal.</t>
         </r>
       </text>
     </comment>
@@ -145,7 +160,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -171,6 +186,19 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Listing the experimenters is no longer necessary.  The experimenter list will be drawn from the proposal.</t>
         </r>
       </text>
     </comment>
@@ -265,7 +293,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -291,6 +319,285 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Listing the experimenters is no longer necessary.  The experimenter list will be drawn from the proposal.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>BR</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Listing the experimenters is no longer necessary.  The experimenter list will be drawn from the proposal.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>BR</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Listing the experimenters is no longer necessary.  The experimenter list will be drawn from the proposal.</t>
         </r>
       </text>
     </comment>
@@ -383,7 +690,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="79">
   <si>
     <t xml:space="preserve">Grid</t>
   </si>
@@ -541,7 +848,7 @@
     <t xml:space="preserve">unfocused</t>
   </si>
   <si>
-    <t xml:space="preserve">YBa2Cu3O7</t>
+    <t xml:space="preserve">X2O3</t>
   </si>
   <si>
     <t xml:space="preserve">powder on tape</t>
@@ -618,6 +925,9 @@
   <si>
     <t xml:space="preserve">add columns for sample X/Y + slit W/H to all spreadsheet types, also remove “Change edge at start?” + deprecate e0 column + deprecate single wheel spreadsheet</t>
   </si>
+  <si>
+    <t xml:space="preserve">remove experimenters cell, 5 tabs in template</t>
+  </si>
 </sst>
 </file>
 
@@ -628,7 +938,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -653,6 +963,14 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFDDDDDD"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -701,19 +1019,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF66"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFE0C2CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -725,13 +1037,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFE0C2CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1012,19 +1330,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1048,23 +1366,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1116,83 +1434,83 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1240,7 +1558,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1248,7 +1566,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1294,7 +1612,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFE0C2CD"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1309,7 +1627,7 @@
       <rgbColor rgb="FFCCFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99FF"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -1343,9 +1661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1082880</xdr:colOff>
+      <xdr:colOff>1081800</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1354,8 +1672,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3195360" y="7013160"/>
-          <a:ext cx="6929640" cy="1850400"/>
+          <a:off x="3198600" y="7013520"/>
+          <a:ext cx="6931800" cy="1848960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1377,7 +1695,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1598,9 +1916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1188000</xdr:colOff>
+      <xdr:colOff>1186920</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1609,8 +1927,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3300480" y="7160760"/>
-          <a:ext cx="6929640" cy="1850400"/>
+          <a:off x="3303720" y="7160760"/>
+          <a:ext cx="6931800" cy="1849680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,7 +1950,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1853,9 +2171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1188000</xdr:colOff>
+      <xdr:colOff>1186920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1864,8 +2182,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3300480" y="7020000"/>
-          <a:ext cx="6929640" cy="1850400"/>
+          <a:off x="3303720" y="7020000"/>
+          <a:ext cx="6931800" cy="1849320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,7 +2205,517 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>Instructions:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>5. Specify motor names and positions in columns R,S,T,U,V,W; leave blank for no motion</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Specify detector position in column Q, blank means to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>not move</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> the detector </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Do not add rows above row 7</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>7. Do not add columns before column AI</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1186920</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3303720" y="7020000"/>
+          <a:ext cx="6931800" cy="1849320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="73080">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>Instructions:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>5. Specify motor names and positions in columns R,S,T,U,V,W; leave blank for no motion</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Specify detector position in column Q, blank means to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>not move</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> the detector </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Do not add rows above row 7</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>7. Do not add columns before column AI</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1186920</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3303720" y="7020000"/>
+          <a:ext cx="6931800" cy="1849320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="73080">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2109,10 +2937,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2175,7 +3003,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 13</v>
+        <v>Version: 14</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -3152,9 +3980,8 @@
       <c r="AF30" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AE1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C4:D4"/>
@@ -3167,70 +3994,70 @@
     <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3252,10 +4079,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3318,7 +4145,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 13</v>
+        <v>Version: 14</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="7" t="s">
@@ -4325,9 +5152,8 @@
       <c r="AF30" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AE1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
@@ -4341,70 +5167,70 @@
     <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30 Y7:Y30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4426,10 +5252,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4492,7 +5318,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 13</v>
+        <v>Version: 14</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -5491,9 +6317,8 @@
       <c r="AF30" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AE1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C4:D4"/>
@@ -5506,74 +6331,74 @@
     <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5588,13 +6413,2349 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="B1:AH30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="26" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2"/>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH5" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="45"/>
+      <c r="T6" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="45"/>
+      <c r="V6" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="48" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="56"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="56"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="56"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="56"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="56"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="56"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="56"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="56"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="56"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="60"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="56"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="60"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="50"/>
+      <c r="C17" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="56"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="60"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="50"/>
+      <c r="C18" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="56"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="60"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="56"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="60"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="56"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="60"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="56"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="60"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="56"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="60"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="56"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="60"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="50"/>
+      <c r="C24" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="56"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="60"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="50"/>
+      <c r="C25" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="56"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="60"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="56"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="60"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="56"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="60"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="50"/>
+      <c r="C28" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="56"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="60"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="50"/>
+      <c r="C29" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="56"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="60"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="56"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:Y4"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+  </mergeCells>
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:AH30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="26" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2"/>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH5" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="45"/>
+      <c r="T6" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="45"/>
+      <c r="V6" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="48" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="56"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="56"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="56"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="56"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="56"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="56"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="56"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="56"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="56"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="60"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="56"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="60"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="50"/>
+      <c r="C17" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="56"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="60"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="50"/>
+      <c r="C18" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="56"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="60"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="56"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="60"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="56"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="60"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="56"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="60"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="56"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="60"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="56"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="60"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="50"/>
+      <c r="C24" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="56"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="60"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="50"/>
+      <c r="C25" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="56"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="60"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="56"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="60"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="56"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="60"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="50"/>
+      <c r="C28" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="56"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="60"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="50"/>
+      <c r="C29" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="56"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="60"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="56"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:Y4"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+  </mergeCells>
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -5613,7 +8774,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="64"/>
     </row>
@@ -5733,10 +8894,18 @@
         <v>77</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -160,7 +160,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -293,7 +293,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -426,7 +426,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -559,7 +559,7 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -690,7 +690,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="80">
   <si>
     <t xml:space="preserve">Grid</t>
   </si>
@@ -927,6 +927,9 @@
   </si>
   <si>
     <t xml:space="preserve">remove experimenters cell, 5 tabs in template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update validity for plotting mode columns</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1526,6 +1529,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1661,9 +1668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1081800</xdr:colOff>
+      <xdr:colOff>1081440</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1672,8 +1679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3198600" y="7013520"/>
-          <a:ext cx="6931800" cy="1848960"/>
+          <a:off x="3199680" y="7013160"/>
+          <a:ext cx="6932880" cy="1848960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1695,7 +1702,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1916,9 +1923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186920</xdr:colOff>
+      <xdr:colOff>1186560</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1927,8 +1934,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3303720" y="7160760"/>
-          <a:ext cx="6931800" cy="1849680"/>
+          <a:off x="3304800" y="7160760"/>
+          <a:ext cx="6932880" cy="1848960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1950,7 +1957,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2171,9 +2178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186920</xdr:colOff>
+      <xdr:colOff>1186560</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2182,8 +2189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3303720" y="7020000"/>
-          <a:ext cx="6931800" cy="1849320"/>
+          <a:off x="3304800" y="7020000"/>
+          <a:ext cx="6932880" cy="1848960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2205,7 +2212,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2426,9 +2433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186920</xdr:colOff>
+      <xdr:colOff>1186560</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2437,8 +2444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3303720" y="7020000"/>
-          <a:ext cx="6931800" cy="1849320"/>
+          <a:off x="3304800" y="7020000"/>
+          <a:ext cx="6932880" cy="1848960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2460,7 +2467,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2681,9 +2688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186920</xdr:colOff>
+      <xdr:colOff>1186560</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2692,8 +2699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3303720" y="7020000"/>
-          <a:ext cx="6931800" cy="1849320"/>
+          <a:off x="3304800" y="7020000"/>
+          <a:ext cx="6932880" cy="1848960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2715,7 +2722,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2937,10 +2944,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3003,7 +3010,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 14</v>
+        <v>Version: 15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -3315,25 +3322,25 @@
       <c r="D7" s="52"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="50"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="55"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="29"/>
-      <c r="P7" s="56"/>
+      <c r="P7" s="57"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50"/>
@@ -3343,25 +3350,25 @@
       <c r="D8" s="52"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="50"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="52"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="55"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="29"/>
-      <c r="P8" s="56"/>
+      <c r="P8" s="57"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="60"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50"/>
@@ -3371,25 +3378,25 @@
       <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="52"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="55"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="56"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="56"/>
+      <c r="P9" s="57"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50"/>
@@ -3399,25 +3406,25 @@
       <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="50"/>
-      <c r="K10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="52"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="55"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="56"/>
       <c r="O10" s="29"/>
-      <c r="P10" s="56"/>
+      <c r="P10" s="57"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="60"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50"/>
@@ -3427,25 +3434,25 @@
       <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="52"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="55"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="56"/>
       <c r="O11" s="29"/>
-      <c r="P11" s="56"/>
+      <c r="P11" s="57"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50"/>
@@ -3455,25 +3462,25 @@
       <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="50"/>
-      <c r="K12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="55"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="56"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="56"/>
+      <c r="P12" s="57"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="60"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50"/>
@@ -3483,25 +3490,25 @@
       <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="50"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="55"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="56"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="56"/>
+      <c r="P13" s="57"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50"/>
@@ -3511,25 +3518,25 @@
       <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="50"/>
-      <c r="K14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="52"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="55"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="56"/>
       <c r="O14" s="29"/>
-      <c r="P14" s="56"/>
+      <c r="P14" s="57"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="60"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="50"/>
@@ -3539,25 +3546,25 @@
       <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="55"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="56"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="56"/>
+      <c r="P15" s="57"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="60"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="50"/>
@@ -3567,25 +3574,25 @@
       <c r="D16" s="29"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="50"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="56"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="55"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="29"/>
-      <c r="P16" s="56"/>
+      <c r="P16" s="57"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="60"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="50"/>
@@ -3595,25 +3602,25 @@
       <c r="D17" s="29"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="50"/>
-      <c r="K17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="52"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="55"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="56"/>
       <c r="O17" s="29"/>
-      <c r="P17" s="56"/>
+      <c r="P17" s="57"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="50"/>
@@ -3623,25 +3630,25 @@
       <c r="D18" s="29"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="50"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="52"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="55"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="56"/>
       <c r="O18" s="29"/>
-      <c r="P18" s="56"/>
+      <c r="P18" s="57"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="60"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="50"/>
@@ -3651,25 +3658,25 @@
       <c r="D19" s="29"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="50"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="52"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="55"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="56"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="56"/>
+      <c r="P19" s="57"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="60"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="50"/>
@@ -3679,25 +3686,25 @@
       <c r="D20" s="29"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="50"/>
-      <c r="K20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="55"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="56"/>
+      <c r="P20" s="57"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="60"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="50"/>
@@ -3707,25 +3714,25 @@
       <c r="D21" s="29"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="50"/>
-      <c r="K21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="52"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="55"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="56"/>
       <c r="O21" s="29"/>
-      <c r="P21" s="56"/>
+      <c r="P21" s="57"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="60"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="50"/>
@@ -3735,25 +3742,25 @@
       <c r="D22" s="29"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="50"/>
-      <c r="K22" s="55"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="55"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="56"/>
       <c r="O22" s="29"/>
-      <c r="P22" s="56"/>
+      <c r="P22" s="57"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="60"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="50"/>
@@ -3763,25 +3770,25 @@
       <c r="D23" s="29"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="52"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="55"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="56"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="56"/>
+      <c r="P23" s="57"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="60"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="50"/>
@@ -3791,25 +3798,25 @@
       <c r="D24" s="29"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="55"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="56"/>
+      <c r="P24" s="57"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="60"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="50"/>
@@ -3819,25 +3826,25 @@
       <c r="D25" s="29"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="50"/>
-      <c r="K25" s="55"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="52"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="55"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="56"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="56"/>
+      <c r="P25" s="57"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="60"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="50"/>
@@ -3847,25 +3854,25 @@
       <c r="D26" s="29"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="50"/>
-      <c r="K26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="52"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="55"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="56"/>
       <c r="O26" s="29"/>
-      <c r="P26" s="56"/>
+      <c r="P26" s="57"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="60"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="50"/>
@@ -3875,25 +3882,25 @@
       <c r="D27" s="29"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="50"/>
-      <c r="K27" s="55"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="52"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="55"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="56"/>
       <c r="O27" s="29"/>
-      <c r="P27" s="56"/>
+      <c r="P27" s="57"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="60"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="50"/>
@@ -3903,25 +3910,25 @@
       <c r="D28" s="29"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="50"/>
-      <c r="K28" s="55"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="52"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="55"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="56"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="56"/>
+      <c r="P28" s="57"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="60"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="50"/>
@@ -3931,25 +3938,25 @@
       <c r="D29" s="29"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="50"/>
-      <c r="K29" s="55"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="29"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="55"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="56"/>
       <c r="O29" s="29"/>
-      <c r="P29" s="56"/>
+      <c r="P29" s="57"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="60"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="50"/>
@@ -3959,25 +3966,25 @@
       <c r="D30" s="29"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="50"/>
-      <c r="K30" s="55"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="29"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="55"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="56"/>
       <c r="O30" s="29"/>
-      <c r="P30" s="56"/>
+      <c r="P30" s="57"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="60"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3993,71 +4000,67 @@
     <mergeCell ref="Z4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4079,10 +4082,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4145,7 +4148,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 14</v>
+        <v>Version: 15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="7" t="s">
@@ -4412,7 +4415,7 @@
         <v>57</v>
       </c>
       <c r="Q6" s="43"/>
-      <c r="R6" s="61" t="s">
+      <c r="R6" s="62" t="s">
         <v>58</v>
       </c>
       <c r="S6" s="45"/>
@@ -4463,26 +4466,26 @@
       <c r="D7" s="52"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="50"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="55"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="29"/>
-      <c r="P7" s="56"/>
+      <c r="P7" s="57"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50"/>
@@ -4492,26 +4495,26 @@
       <c r="D8" s="52"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="50"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="52"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="55"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="29"/>
-      <c r="P8" s="56"/>
+      <c r="P8" s="57"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="60"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50"/>
@@ -4521,26 +4524,26 @@
       <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="52"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="55"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="56"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="56"/>
+      <c r="P9" s="57"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50"/>
@@ -4550,26 +4553,26 @@
       <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="50"/>
-      <c r="K10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="52"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="55"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="56"/>
       <c r="O10" s="29"/>
-      <c r="P10" s="56"/>
+      <c r="P10" s="57"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="60"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50"/>
@@ -4579,26 +4582,26 @@
       <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="52"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="55"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="56"/>
       <c r="O11" s="29"/>
-      <c r="P11" s="56"/>
+      <c r="P11" s="57"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50"/>
@@ -4608,26 +4611,26 @@
       <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="50"/>
-      <c r="K12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="55"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="56"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="56"/>
+      <c r="P12" s="57"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="60"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50"/>
@@ -4637,26 +4640,26 @@
       <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="50"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="55"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="56"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="56"/>
+      <c r="P13" s="57"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50"/>
@@ -4666,26 +4669,26 @@
       <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="50"/>
-      <c r="K14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="52"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="55"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="56"/>
       <c r="O14" s="29"/>
-      <c r="P14" s="56"/>
+      <c r="P14" s="57"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="60"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="50"/>
@@ -4695,26 +4698,26 @@
       <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="55"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="56"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="56"/>
+      <c r="P15" s="57"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="60"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="50"/>
@@ -4724,26 +4727,26 @@
       <c r="D16" s="29"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="50"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="56"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="55"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="29"/>
-      <c r="P16" s="56"/>
+      <c r="P16" s="57"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="60"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="50"/>
@@ -4753,26 +4756,26 @@
       <c r="D17" s="29"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="50"/>
-      <c r="K17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="52"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="55"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="56"/>
       <c r="O17" s="29"/>
-      <c r="P17" s="56"/>
+      <c r="P17" s="57"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="50"/>
@@ -4782,26 +4785,26 @@
       <c r="D18" s="29"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="50"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="52"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="55"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="56"/>
       <c r="O18" s="29"/>
-      <c r="P18" s="56"/>
+      <c r="P18" s="57"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="60"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="50"/>
@@ -4811,26 +4814,26 @@
       <c r="D19" s="29"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="50"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="52"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="55"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="56"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="56"/>
+      <c r="P19" s="57"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="60"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="50"/>
@@ -4840,26 +4843,26 @@
       <c r="D20" s="29"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="50"/>
-      <c r="K20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="55"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="56"/>
+      <c r="P20" s="57"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="60"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="50"/>
@@ -4869,26 +4872,26 @@
       <c r="D21" s="29"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="50"/>
-      <c r="K21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="52"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="55"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="56"/>
       <c r="O21" s="29"/>
-      <c r="P21" s="56"/>
+      <c r="P21" s="57"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="60"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="50"/>
@@ -4898,26 +4901,26 @@
       <c r="D22" s="29"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="50"/>
-      <c r="K22" s="55"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="55"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="56"/>
       <c r="O22" s="29"/>
-      <c r="P22" s="56"/>
+      <c r="P22" s="57"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="60"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="50"/>
@@ -4927,26 +4930,26 @@
       <c r="D23" s="29"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="52"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="55"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="56"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="56"/>
+      <c r="P23" s="57"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="60"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="50"/>
@@ -4956,26 +4959,26 @@
       <c r="D24" s="29"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="55"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="56"/>
+      <c r="P24" s="57"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="60"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="50"/>
@@ -4985,26 +4988,26 @@
       <c r="D25" s="29"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="50"/>
-      <c r="K25" s="55"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="52"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="55"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="56"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="56"/>
+      <c r="P25" s="57"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="60"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="50"/>
@@ -5014,26 +5017,26 @@
       <c r="D26" s="29"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="50"/>
-      <c r="K26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="52"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="55"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="56"/>
       <c r="O26" s="29"/>
-      <c r="P26" s="56"/>
+      <c r="P26" s="57"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="60"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="50"/>
@@ -5043,26 +5046,26 @@
       <c r="D27" s="29"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="50"/>
-      <c r="K27" s="55"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="52"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="55"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="56"/>
       <c r="O27" s="29"/>
-      <c r="P27" s="56"/>
+      <c r="P27" s="57"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="60"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="50"/>
@@ -5072,26 +5075,26 @@
       <c r="D28" s="29"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="50"/>
-      <c r="K28" s="55"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="52"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="55"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="56"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="56"/>
+      <c r="P28" s="57"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="60"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="50"/>
@@ -5101,26 +5104,26 @@
       <c r="D29" s="29"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="50"/>
-      <c r="K29" s="55"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="29"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="55"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="56"/>
       <c r="O29" s="29"/>
-      <c r="P29" s="56"/>
+      <c r="P29" s="57"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="60"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="50"/>
@@ -5130,26 +5133,26 @@
       <c r="D30" s="29"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="50"/>
-      <c r="K30" s="55"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="29"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="55"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="56"/>
       <c r="O30" s="29"/>
-      <c r="P30" s="56"/>
+      <c r="P30" s="57"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="60"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5166,71 +5169,67 @@
     <mergeCell ref="Z4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30 Y7:Y30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5252,10 +5251,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -5318,7 +5317,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 14</v>
+        <v>Version: 15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -5578,7 +5577,7 @@
         <v>57</v>
       </c>
       <c r="Q6" s="43"/>
-      <c r="R6" s="63" t="s">
+      <c r="R6" s="64" t="s">
         <v>58</v>
       </c>
       <c r="S6" s="45"/>
@@ -5628,26 +5627,26 @@
       <c r="D7" s="52"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="50"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="55"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="29"/>
-      <c r="P7" s="56"/>
+      <c r="P7" s="57"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50"/>
@@ -5657,26 +5656,26 @@
       <c r="D8" s="52"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="50"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="52"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="55"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="29"/>
-      <c r="P8" s="56"/>
+      <c r="P8" s="57"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="60"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50"/>
@@ -5686,26 +5685,26 @@
       <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="52"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="55"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="56"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="56"/>
+      <c r="P9" s="57"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50"/>
@@ -5715,26 +5714,26 @@
       <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="50"/>
-      <c r="K10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="52"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="55"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="56"/>
       <c r="O10" s="29"/>
-      <c r="P10" s="56"/>
+      <c r="P10" s="57"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="60"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50"/>
@@ -5744,26 +5743,26 @@
       <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="52"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="55"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="56"/>
       <c r="O11" s="29"/>
-      <c r="P11" s="56"/>
+      <c r="P11" s="57"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50"/>
@@ -5773,26 +5772,26 @@
       <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="50"/>
-      <c r="K12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="55"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="56"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="56"/>
+      <c r="P12" s="57"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="60"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50"/>
@@ -5802,26 +5801,26 @@
       <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="50"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="55"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="56"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="56"/>
+      <c r="P13" s="57"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50"/>
@@ -5831,26 +5830,26 @@
       <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="50"/>
-      <c r="K14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="52"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="55"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="56"/>
       <c r="O14" s="29"/>
-      <c r="P14" s="56"/>
+      <c r="P14" s="57"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="60"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="50"/>
@@ -5860,26 +5859,26 @@
       <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="55"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="56"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="56"/>
+      <c r="P15" s="57"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="60"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="50"/>
@@ -5889,26 +5888,26 @@
       <c r="D16" s="29"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="50"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="56"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="55"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="29"/>
-      <c r="P16" s="56"/>
+      <c r="P16" s="57"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="60"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="50"/>
@@ -5918,26 +5917,26 @@
       <c r="D17" s="29"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="50"/>
-      <c r="K17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="52"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="55"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="56"/>
       <c r="O17" s="29"/>
-      <c r="P17" s="56"/>
+      <c r="P17" s="57"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="50"/>
@@ -5947,26 +5946,26 @@
       <c r="D18" s="29"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="50"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="52"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="55"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="56"/>
       <c r="O18" s="29"/>
-      <c r="P18" s="56"/>
+      <c r="P18" s="57"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="60"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="50"/>
@@ -5976,26 +5975,26 @@
       <c r="D19" s="29"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="50"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="52"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="55"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="56"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="56"/>
+      <c r="P19" s="57"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="60"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="50"/>
@@ -6005,26 +6004,26 @@
       <c r="D20" s="29"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="50"/>
-      <c r="K20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="55"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="56"/>
+      <c r="P20" s="57"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="60"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="50"/>
@@ -6034,26 +6033,26 @@
       <c r="D21" s="29"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="50"/>
-      <c r="K21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="52"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="55"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="56"/>
       <c r="O21" s="29"/>
-      <c r="P21" s="56"/>
+      <c r="P21" s="57"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="60"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="50"/>
@@ -6063,26 +6062,26 @@
       <c r="D22" s="29"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="50"/>
-      <c r="K22" s="55"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="55"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="56"/>
       <c r="O22" s="29"/>
-      <c r="P22" s="56"/>
+      <c r="P22" s="57"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="60"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="50"/>
@@ -6092,26 +6091,26 @@
       <c r="D23" s="29"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="52"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="55"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="56"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="56"/>
+      <c r="P23" s="57"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="60"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="50"/>
@@ -6121,26 +6120,26 @@
       <c r="D24" s="29"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="55"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="56"/>
+      <c r="P24" s="57"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="60"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="50"/>
@@ -6150,26 +6149,26 @@
       <c r="D25" s="29"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="50"/>
-      <c r="K25" s="55"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="52"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="55"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="56"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="56"/>
+      <c r="P25" s="57"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="60"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="50"/>
@@ -6179,26 +6178,26 @@
       <c r="D26" s="29"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="50"/>
-      <c r="K26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="52"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="55"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="56"/>
       <c r="O26" s="29"/>
-      <c r="P26" s="56"/>
+      <c r="P26" s="57"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="60"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="50"/>
@@ -6208,26 +6207,26 @@
       <c r="D27" s="29"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="50"/>
-      <c r="K27" s="55"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="52"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="55"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="56"/>
       <c r="O27" s="29"/>
-      <c r="P27" s="56"/>
+      <c r="P27" s="57"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="60"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="50"/>
@@ -6237,26 +6236,26 @@
       <c r="D28" s="29"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="50"/>
-      <c r="K28" s="55"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="52"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="55"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="56"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="56"/>
+      <c r="P28" s="57"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="60"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="50"/>
@@ -6266,26 +6265,26 @@
       <c r="D29" s="29"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="50"/>
-      <c r="K29" s="55"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="29"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="55"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="56"/>
       <c r="O29" s="29"/>
-      <c r="P29" s="56"/>
+      <c r="P29" s="57"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="60"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="50"/>
@@ -6295,26 +6294,26 @@
       <c r="D30" s="29"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="50"/>
-      <c r="K30" s="55"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="29"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="55"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="56"/>
       <c r="O30" s="29"/>
-      <c r="P30" s="56"/>
+      <c r="P30" s="57"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="60"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6330,75 +6329,71 @@
     <mergeCell ref="Z4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6420,10 +6415,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -6486,7 +6481,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 14</v>
+        <v>Version: 15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -6746,7 +6741,7 @@
         <v>57</v>
       </c>
       <c r="Q6" s="43"/>
-      <c r="R6" s="63" t="s">
+      <c r="R6" s="64" t="s">
         <v>58</v>
       </c>
       <c r="S6" s="45"/>
@@ -6796,26 +6791,26 @@
       <c r="D7" s="52"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="50"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="55"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="29"/>
-      <c r="P7" s="56"/>
+      <c r="P7" s="57"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50"/>
@@ -6825,26 +6820,26 @@
       <c r="D8" s="52"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="50"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="52"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="55"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="29"/>
-      <c r="P8" s="56"/>
+      <c r="P8" s="57"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="60"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50"/>
@@ -6854,26 +6849,26 @@
       <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="52"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="55"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="56"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="56"/>
+      <c r="P9" s="57"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50"/>
@@ -6883,26 +6878,26 @@
       <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="50"/>
-      <c r="K10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="52"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="55"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="56"/>
       <c r="O10" s="29"/>
-      <c r="P10" s="56"/>
+      <c r="P10" s="57"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="60"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50"/>
@@ -6912,26 +6907,26 @@
       <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="52"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="55"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="56"/>
       <c r="O11" s="29"/>
-      <c r="P11" s="56"/>
+      <c r="P11" s="57"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50"/>
@@ -6941,26 +6936,26 @@
       <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="50"/>
-      <c r="K12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="55"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="56"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="56"/>
+      <c r="P12" s="57"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="60"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50"/>
@@ -6970,26 +6965,26 @@
       <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="50"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="55"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="56"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="56"/>
+      <c r="P13" s="57"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50"/>
@@ -6999,26 +6994,26 @@
       <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="50"/>
-      <c r="K14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="52"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="55"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="56"/>
       <c r="O14" s="29"/>
-      <c r="P14" s="56"/>
+      <c r="P14" s="57"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="60"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="50"/>
@@ -7028,26 +7023,26 @@
       <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="55"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="56"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="56"/>
+      <c r="P15" s="57"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="60"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="50"/>
@@ -7057,26 +7052,26 @@
       <c r="D16" s="29"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="50"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="56"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="55"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="29"/>
-      <c r="P16" s="56"/>
+      <c r="P16" s="57"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="60"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="50"/>
@@ -7086,26 +7081,26 @@
       <c r="D17" s="29"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="50"/>
-      <c r="K17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="52"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="55"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="56"/>
       <c r="O17" s="29"/>
-      <c r="P17" s="56"/>
+      <c r="P17" s="57"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="50"/>
@@ -7115,26 +7110,26 @@
       <c r="D18" s="29"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="50"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="52"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="55"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="56"/>
       <c r="O18" s="29"/>
-      <c r="P18" s="56"/>
+      <c r="P18" s="57"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="60"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="50"/>
@@ -7144,26 +7139,26 @@
       <c r="D19" s="29"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="50"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="52"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="55"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="56"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="56"/>
+      <c r="P19" s="57"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="60"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="50"/>
@@ -7173,26 +7168,26 @@
       <c r="D20" s="29"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="50"/>
-      <c r="K20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="55"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="56"/>
+      <c r="P20" s="57"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="60"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="50"/>
@@ -7202,26 +7197,26 @@
       <c r="D21" s="29"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="50"/>
-      <c r="K21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="52"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="55"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="56"/>
       <c r="O21" s="29"/>
-      <c r="P21" s="56"/>
+      <c r="P21" s="57"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="60"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="50"/>
@@ -7231,26 +7226,26 @@
       <c r="D22" s="29"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="50"/>
-      <c r="K22" s="55"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="55"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="56"/>
       <c r="O22" s="29"/>
-      <c r="P22" s="56"/>
+      <c r="P22" s="57"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="60"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="50"/>
@@ -7260,26 +7255,26 @@
       <c r="D23" s="29"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="52"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="55"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="56"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="56"/>
+      <c r="P23" s="57"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="60"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="50"/>
@@ -7289,26 +7284,26 @@
       <c r="D24" s="29"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="55"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="56"/>
+      <c r="P24" s="57"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="60"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="50"/>
@@ -7318,26 +7313,26 @@
       <c r="D25" s="29"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="50"/>
-      <c r="K25" s="55"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="52"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="55"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="56"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="56"/>
+      <c r="P25" s="57"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="60"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="50"/>
@@ -7347,26 +7342,26 @@
       <c r="D26" s="29"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="50"/>
-      <c r="K26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="52"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="55"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="56"/>
       <c r="O26" s="29"/>
-      <c r="P26" s="56"/>
+      <c r="P26" s="57"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="60"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="50"/>
@@ -7376,26 +7371,26 @@
       <c r="D27" s="29"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="50"/>
-      <c r="K27" s="55"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="52"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="55"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="56"/>
       <c r="O27" s="29"/>
-      <c r="P27" s="56"/>
+      <c r="P27" s="57"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="60"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="50"/>
@@ -7405,26 +7400,26 @@
       <c r="D28" s="29"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="50"/>
-      <c r="K28" s="55"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="52"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="55"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="56"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="56"/>
+      <c r="P28" s="57"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="60"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="50"/>
@@ -7434,26 +7429,26 @@
       <c r="D29" s="29"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="50"/>
-      <c r="K29" s="55"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="29"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="55"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="56"/>
       <c r="O29" s="29"/>
-      <c r="P29" s="56"/>
+      <c r="P29" s="57"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="60"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="50"/>
@@ -7463,26 +7458,26 @@
       <c r="D30" s="29"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="50"/>
-      <c r="K30" s="55"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="29"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="55"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="56"/>
       <c r="O30" s="29"/>
-      <c r="P30" s="56"/>
+      <c r="P30" s="57"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="60"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7498,75 +7493,71 @@
     <mergeCell ref="Z4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7588,10 +7579,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -7654,7 +7645,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 14</v>
+        <v>Version: 15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -7914,7 +7905,7 @@
         <v>57</v>
       </c>
       <c r="Q6" s="43"/>
-      <c r="R6" s="63" t="s">
+      <c r="R6" s="64" t="s">
         <v>58</v>
       </c>
       <c r="S6" s="45"/>
@@ -7964,26 +7955,26 @@
       <c r="D7" s="52"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="50"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="55"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="29"/>
-      <c r="P7" s="56"/>
+      <c r="P7" s="57"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50"/>
@@ -7993,26 +7984,26 @@
       <c r="D8" s="52"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="50"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="52"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="55"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="29"/>
-      <c r="P8" s="56"/>
+      <c r="P8" s="57"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="60"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50"/>
@@ -8022,26 +8013,26 @@
       <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="52"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="55"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="56"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="56"/>
+      <c r="P9" s="57"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50"/>
@@ -8051,26 +8042,26 @@
       <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="50"/>
-      <c r="K10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="52"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="55"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="56"/>
       <c r="O10" s="29"/>
-      <c r="P10" s="56"/>
+      <c r="P10" s="57"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="60"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50"/>
@@ -8080,26 +8071,26 @@
       <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="52"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="55"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="56"/>
       <c r="O11" s="29"/>
-      <c r="P11" s="56"/>
+      <c r="P11" s="57"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50"/>
@@ -8109,26 +8100,26 @@
       <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="50"/>
-      <c r="K12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="55"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="56"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="56"/>
+      <c r="P12" s="57"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="60"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50"/>
@@ -8138,26 +8129,26 @@
       <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="50"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="55"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="56"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="56"/>
+      <c r="P13" s="57"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50"/>
@@ -8167,26 +8158,26 @@
       <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="50"/>
-      <c r="K14" s="55"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="52"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="55"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="56"/>
       <c r="O14" s="29"/>
-      <c r="P14" s="56"/>
+      <c r="P14" s="57"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="60"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="50"/>
@@ -8196,26 +8187,26 @@
       <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="55"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="56"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="56"/>
+      <c r="P15" s="57"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="60"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="50"/>
@@ -8225,26 +8216,26 @@
       <c r="D16" s="29"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="50"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="56"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="55"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="29"/>
-      <c r="P16" s="56"/>
+      <c r="P16" s="57"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="60"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="50"/>
@@ -8254,26 +8245,26 @@
       <c r="D17" s="29"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="50"/>
-      <c r="K17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="52"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="55"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="56"/>
       <c r="O17" s="29"/>
-      <c r="P17" s="56"/>
+      <c r="P17" s="57"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="50"/>
@@ -8283,26 +8274,26 @@
       <c r="D18" s="29"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="50"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="52"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="55"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="56"/>
       <c r="O18" s="29"/>
-      <c r="P18" s="56"/>
+      <c r="P18" s="57"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="60"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="50"/>
@@ -8312,26 +8303,26 @@
       <c r="D19" s="29"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="50"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="52"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="55"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="56"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="56"/>
+      <c r="P19" s="57"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="60"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="50"/>
@@ -8341,26 +8332,26 @@
       <c r="D20" s="29"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="50"/>
-      <c r="K20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="55"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="56"/>
+      <c r="P20" s="57"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="60"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="50"/>
@@ -8370,26 +8361,26 @@
       <c r="D21" s="29"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="50"/>
-      <c r="K21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="52"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="55"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="56"/>
       <c r="O21" s="29"/>
-      <c r="P21" s="56"/>
+      <c r="P21" s="57"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="60"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="50"/>
@@ -8399,26 +8390,26 @@
       <c r="D22" s="29"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="50"/>
-      <c r="K22" s="55"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="55"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="56"/>
       <c r="O22" s="29"/>
-      <c r="P22" s="56"/>
+      <c r="P22" s="57"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="60"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="50"/>
@@ -8428,26 +8419,26 @@
       <c r="D23" s="29"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="52"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="55"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="56"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="56"/>
+      <c r="P23" s="57"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="60"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="50"/>
@@ -8457,26 +8448,26 @@
       <c r="D24" s="29"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="55"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="56"/>
+      <c r="P24" s="57"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="60"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="50"/>
@@ -8486,26 +8477,26 @@
       <c r="D25" s="29"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="50"/>
-      <c r="K25" s="55"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="52"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="55"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="56"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="56"/>
+      <c r="P25" s="57"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="60"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="50"/>
@@ -8515,26 +8506,26 @@
       <c r="D26" s="29"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="50"/>
-      <c r="K26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="52"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="55"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="56"/>
       <c r="O26" s="29"/>
-      <c r="P26" s="56"/>
+      <c r="P26" s="57"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="60"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="50"/>
@@ -8544,26 +8535,26 @@
       <c r="D27" s="29"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="50"/>
-      <c r="K27" s="55"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="52"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="55"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="56"/>
       <c r="O27" s="29"/>
-      <c r="P27" s="56"/>
+      <c r="P27" s="57"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="60"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="50"/>
@@ -8573,26 +8564,26 @@
       <c r="D28" s="29"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="50"/>
-      <c r="K28" s="55"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="52"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="55"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="56"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="56"/>
+      <c r="P28" s="57"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="60"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="50"/>
@@ -8602,26 +8593,26 @@
       <c r="D29" s="29"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="50"/>
-      <c r="K29" s="55"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="29"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="55"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="56"/>
       <c r="O29" s="29"/>
-      <c r="P29" s="56"/>
+      <c r="P29" s="57"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="60"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="50"/>
@@ -8631,26 +8622,26 @@
       <c r="D30" s="29"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="50"/>
-      <c r="K30" s="55"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="29"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="55"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="56"/>
       <c r="O30" s="29"/>
-      <c r="P30" s="56"/>
+      <c r="P30" s="57"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="60"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8666,75 +8657,71 @@
     <mergeCell ref="Z4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8749,19 +8736,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="64" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="65" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
         <v>62</v>
       </c>
@@ -8770,23 +8757,23 @@
       <c r="A2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="B3" s="64"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="65"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28"/>
-      <c r="B4" s="64"/>
+      <c r="B4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="65" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8890,7 +8877,7 @@
       <c r="A18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="66" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8902,10 +8889,18 @@
         <v>78</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -690,7 +690,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="81">
   <si>
     <t xml:space="preserve">Grid</t>
   </si>
@@ -930,6 +930,9 @@
   </si>
   <si>
     <t xml:space="preserve">update validity for plotting mode columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added resonant reflectivity spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1668,9 +1671,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1081440</xdr:colOff>
+      <xdr:colOff>1081080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1679,8 +1682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3199680" y="7013160"/>
-          <a:ext cx="6932880" cy="1848960"/>
+          <a:off x="3200400" y="7013160"/>
+          <a:ext cx="6933240" cy="1848600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1923,9 +1926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186560</xdr:colOff>
+      <xdr:colOff>1186200</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1934,8 +1937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3304800" y="7160760"/>
-          <a:ext cx="6932880" cy="1848960"/>
+          <a:off x="3305520" y="7160760"/>
+          <a:ext cx="6933240" cy="1848600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186560</xdr:colOff>
+      <xdr:colOff>1186200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2189,8 +2192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3304800" y="7020000"/>
-          <a:ext cx="6932880" cy="1848960"/>
+          <a:off x="3305520" y="7020000"/>
+          <a:ext cx="6933240" cy="1848600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2433,9 +2436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186560</xdr:colOff>
+      <xdr:colOff>1186200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2444,8 +2447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3304800" y="7020000"/>
-          <a:ext cx="6932880" cy="1848960"/>
+          <a:off x="3305520" y="7020000"/>
+          <a:ext cx="6933240" cy="1848600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2688,9 +2691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186560</xdr:colOff>
+      <xdr:colOff>1186200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2699,8 +2702,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3304800" y="7020000"/>
-          <a:ext cx="6932880" cy="1848960"/>
+          <a:off x="3305520" y="7020000"/>
+          <a:ext cx="6933240" cy="1848600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2944,10 +2947,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3010,7 +3013,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 15</v>
+        <v>Version: 16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -4085,7 +4088,7 @@
       <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4148,7 +4151,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 15</v>
+        <v>Version: 16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="7" t="s">
@@ -5218,12 +5221,12 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
-      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5254,7 +5257,7 @@
       <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -5317,7 +5320,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 15</v>
+        <v>Version: 16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -6382,13 +6385,13 @@
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
-      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6418,7 +6421,7 @@
       <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -6481,7 +6484,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 15</v>
+        <v>Version: 16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -7546,13 +7549,13 @@
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
-      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7582,7 +7585,7 @@
       <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -7645,7 +7648,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 15</v>
+        <v>Version: 16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -8710,13 +8713,13 @@
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
-      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8736,13 +8739,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -8761,7 +8764,8 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
-        <v>15</v>
+        <f aca="false">MAX(A6:A41)</f>
+        <v>16</v>
       </c>
       <c r="B3" s="65"/>
     </row>
@@ -8895,6 +8899,14 @@
       </c>
       <c r="B20" s="0" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
